--- a/data/odds calc.xlsx
+++ b/data/odds calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahedges\Documents\Personal\Sports &amp; Stats\Fantasy Football\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\football\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718E248E-02B1-4CB8-B879-D47315A638E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D6846-B62C-42A9-9BD6-B7C7251516C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="8988" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
+    <workbookView xWindow="6120" yWindow="1913" windowWidth="19200" windowHeight="10214" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 10" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Probablities" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -726,20 +725,20 @@
   <dimension ref="B1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.29296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1171875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.29296875" customWidth="1"/>
+    <col min="17" max="17" width="2.29296875" customWidth="1"/>
+    <col min="21" max="22" width="2.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -762,7 +761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -814,7 +813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -882,15 +881,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>-3</v>
+      <c r="D4">
+        <v>-2.5</v>
       </c>
       <c r="E4">
         <v>-2</v>
@@ -901,7 +900,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="b">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
@@ -921,11 +920,11 @@
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Browns -1</v>
+        <v>Browns -0.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -939,14 +938,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>-1.5</v>
       </c>
       <c r="E5">
@@ -996,14 +995,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>10.5</v>
       </c>
       <c r="E6">
@@ -1050,15 +1049,15 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
-        <v>-1.5</v>
+      <c r="D7">
+        <v>-1</v>
       </c>
       <c r="E7">
         <v>-3</v>
@@ -1069,7 +1068,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
@@ -1089,11 +1088,11 @@
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Lions 1.5</v>
+        <v>Lions 2</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
@@ -1104,15 +1103,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3">
-        <v>-5</v>
+      <c r="D8">
+        <v>-6</v>
       </c>
       <c r="E8">
         <v>-6.5</v>
@@ -1123,7 +1122,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
@@ -1143,11 +1142,11 @@
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans 1.5</v>
+        <v>Titans 0.5</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
@@ -1158,15 +1157,15 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>-4</v>
+      <c r="D9">
+        <v>-3.5</v>
       </c>
       <c r="E9">
         <v>-7</v>
@@ -1177,7 +1176,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="b">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
@@ -1197,11 +1196,11 @@
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Falcons 3</v>
+        <v>Falcons 3.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
@@ -1212,14 +1211,14 @@
         <v>Falcons</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
@@ -1266,15 +1265,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3">
-        <v>3.5</v>
+      <c r="D11">
+        <v>4</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -1285,11 +1284,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H11" t="b">
+        <v>-4</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Broncos</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="5"/>
@@ -1305,11 +1304,11 @@
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Dolphins 4.5</v>
+        <v>Dolphins 5</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
@@ -1323,15 +1322,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3">
-        <v>-9</v>
+      <c r="D12">
+        <v>-10</v>
       </c>
       <c r="E12">
         <v>-8.5</v>
@@ -1342,7 +1341,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="4"/>
@@ -1362,11 +1361,11 @@
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Chargers -0.5</v>
+        <v>Chargers -1.5</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
@@ -1380,14 +1379,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>-1.5</v>
       </c>
       <c r="E13">
@@ -1434,14 +1433,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>-7</v>
       </c>
       <c r="E14">
@@ -1488,15 +1487,15 @@
         <v>Cowboys</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3">
-        <v>8</v>
+      <c r="D15">
+        <v>7.5</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -1507,7 +1506,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -1527,11 +1526,11 @@
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Chiefs -1</v>
+        <v>Chiefs -0.5</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
@@ -1542,15 +1541,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3">
-        <v>-4</v>
+      <c r="D16">
+        <v>-4.5</v>
       </c>
       <c r="E16">
         <v>-3</v>
@@ -1561,7 +1560,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="b">
         <f t="shared" si="4"/>
@@ -1581,11 +1580,11 @@
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Buccaneers -1</v>
+        <v>Buccaneers -1.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -1596,17 +1595,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1659,17 +1658,17 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.29296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1171875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.29296875" customWidth="1"/>
+    <col min="17" max="17" width="2.29296875" customWidth="1"/>
+    <col min="21" max="22" width="2.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>Colts</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>Giants</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>Jaguars</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>Bears</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>Dolphins</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>Saints</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -2559,17 +2558,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.29296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.29296875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
+    <col min="16" max="16" width="3.29296875" customWidth="1"/>
+    <col min="17" max="17" width="2.29296875" customWidth="1"/>
+    <col min="21" max="22" width="2.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>Bengals</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>Chiefs</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>49ers</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -3456,20 +3455,20 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.87890625" customWidth="1"/>
+    <col min="7" max="7" width="6.1171875" customWidth="1"/>
+    <col min="8" max="9" width="9.29296875" customWidth="1"/>
+    <col min="12" max="12" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.87890625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.703125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="3.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>Bengals</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>Bills</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>49ers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>Bears</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -4354,16 +4353,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5859375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.41015625" customWidth="1"/>
+    <col min="14" max="14" width="12.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C2">
         <v>2</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C3">
         <v>2</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>0.54999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C4">
         <v>10</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C5">
         <v>2</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C6">
         <v>2</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>0.38596491228070168</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.5">
       <c r="I9" t="s">
         <v>58</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.5">
       <c r="I10" t="s">
         <v>59</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.5">
       <c r="J11">
         <f>J9*J10</f>
         <v>0.32432432432432434</v>
@@ -4580,7 +4579,7 @@
         <v>-1.027027027027027</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.5">
       <c r="J13" t="s">
         <v>54</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.5">
       <c r="I14" t="s">
         <v>58</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.5">
       <c r="I15" t="s">
         <v>59</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>0.35135135135135132</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.5">
       <c r="J16">
         <f>J14*J15</f>
         <v>0.64864864864864868</v>
@@ -4630,7 +4629,7 @@
         <v>-5.4054054054053946E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.5">
       <c r="J18" t="s">
         <v>54</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.5">
       <c r="I19" t="s">
         <v>58</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.5">
       <c r="I20" t="s">
         <v>59</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.5">
       <c r="J21">
         <f>J19*J20</f>
         <v>0.94444444444444442</v>

--- a/data/odds calc.xlsx
+++ b/data/odds calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\football\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9666191-3B51-446E-B7C7-449CBC3AFF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF7011-961D-423B-ADBC-70A3680EBD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="630" windowWidth="18000" windowHeight="9255" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
+    <workbookView xWindow="19300" yWindow="750" windowWidth="19200" windowHeight="10210" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 11" sheetId="6" r:id="rId1"/>
@@ -768,20 +768,20 @@
   <dimension ref="B1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -846,17 +846,17 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>461.99999999999994</v>
+        <v>252</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -874,7 +874,7 @@
         <v>-2.5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
+        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
         <v>-3</v>
       </c>
       <c r="H3" t="b">
@@ -886,11 +886,11 @@
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L3" t="str" cm="1">
@@ -914,17 +914,17 @@
       </c>
       <c r="S3">
         <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
-        <v>792</v>
+        <v>461.99999999999994</v>
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -981,7 +981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -995,7 +995,7 @@
         <v>-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
+        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
         <v>3</v>
       </c>
       <c r="G5">
@@ -1038,7 +1038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>-5.5</v>
+        <v>-4.5</v>
       </c>
       <c r="E6">
         <v>-6</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -1077,11 +1077,11 @@
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Chargers 0.5</v>
+        <v>Chargers 1.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -1092,7 +1092,7 @@
         <v>Chargers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-6.5</v>
-      </c>
-      <c r="H9" t="e">
+        <v>-7.5</v>
+      </c>
+      <c r="H9" t="b">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
@@ -1235,26 +1235,26 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Jaguars</v>
+        <v>Browns</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Browns -0.5</v>
+        <v>Browns -1.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v>Jaguars</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>48</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1273,14 +1273,14 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-7.5</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J10" t="str">
@@ -1289,26 +1289,26 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
-        <v>Jets</v>
+        <v>Dolphins</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M10" t="str" cm="1">
+        <v>Dolphins -0.5</v>
+      </c>
+      <c r="M10" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>No MOV</v>
+        <v>-0.5</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Jets</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="b">
         <f t="shared" si="4"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Cardinals 2.5</v>
+        <v>Cardinals 1</v>
       </c>
       <c r="M11" t="e" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
@@ -1365,7 +1365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>46</v>
       </c>
       <c r="D12">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="E12">
         <v>-3.5</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="b">
         <f t="shared" si="4"/>
@@ -1398,21 +1398,21 @@
         <f t="shared" si="1"/>
         <v>Panthers</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v>Panthers</v>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M12" t="str" cm="1">
+        <v>Panthers 0.5</v>
+      </c>
+      <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>No MOV</v>
+        <v>0.5</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
@@ -1422,26 +1422,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>-4</v>
+        <v>16.5</v>
       </c>
       <c r="E13">
-        <v>-2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>-5.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-16.5</v>
       </c>
       <c r="H13" t="b">
         <f t="shared" si="4"/>
@@ -1451,21 +1451,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>Ravens</v>
+        <v>Saints</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Steelers -1.5</v>
+        <v>Saints -11</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>-1.5</v>
+        <v>-11</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
@@ -1476,30 +1476,30 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>-5.5</v>
       </c>
       <c r="E14">
-        <v>5.5</v>
+        <v>-7</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>-5.5</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="H14" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="H14" t="b">
         <f t="shared" si="4"/>
-        <v>Broncos</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <f t="shared" si="5"/>
@@ -1507,19 +1507,19 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>Broncos</v>
+        <v>49ers</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>Broncos</v>
+        <v>49ers</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Saints -0.5</v>
+        <v>49ers 1.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
@@ -1527,29 +1527,29 @@
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>Broncos</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>-6.5</v>
+        <v>3.5</v>
       </c>
       <c r="E15">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -1559,71 +1559,71 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>49ers</v>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>49ers</v>
+        <v>Buccaneers</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>49ers 0.5</v>
+        <v>Chiefs -0.5</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.5</v>
+        <v>-8</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>-3</v>
+        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
+        <v>7.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
+        <v>8</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
+        <v>Packers</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>Buccaneers</v>
+        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Chiefs -0.5</v>
+        <v>Packers -0.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
@@ -1631,111 +1631,111 @@
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+        <v>Packers</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>-8.5</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>-7.5</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F18" si="6">E17*-1</f>
-        <v>7.5</v>
+        <f t="shared" si="6"/>
+        <v>-3</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G18" si="7">D17*-1</f>
-        <v>8.5</v>
+        <f t="shared" si="7"/>
+        <v>-6</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ref="H17:H18" si="8">IF(D17&lt;0,IF(D17&lt;-7.5,C17,FALSE),IF(AND(D17&gt;3.5,D17&lt;7),C17,FALSE))</f>
-        <v>Packers</v>
+        <f t="shared" si="8"/>
+        <v>Eagles</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" ref="I17:I18" si="9">IF(F17&lt;0,IF(F17&lt;-7.5,B17,FALSE),IF(AND(F17&gt;3.5,F17&lt;7),B17,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" ref="J17:J18" si="10">IF(E17&lt;0,IF(E17&lt;=-7.5,C17,IF(AND(ABS(E17)&gt;=3.5,ABS(E17)&lt;=7),B17,FALSE)),IF(AND(E17&gt;=3.5,E17&lt;=7),C17,IF(E17&gt;=7.5,B17,FALSE)))</f>
-        <v>Packers</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17:K18" si="11">IF(D17&lt;0,IF(D17&lt;=-7.5,C17,IF(AND(ABS(D17)&gt;=3.5,ABS(D17)&lt;=7),B17,FALSE)),IF(AND(D17&gt;=3.5,D17&lt;=7),C17,IF(D17&gt;=7.5,B17,FALSE)))</f>
-        <v>Packers</v>
+        <f t="shared" si="11"/>
+        <v>Eagles</v>
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Packers -1</v>
+        <v>Seahawks -3</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
-        <v>Packers</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="6"/>
-        <v>-3</v>
+        <f>E18*-1</f>
+        <v>2.5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="7"/>
-        <v>-5</v>
+        <f>D18*-1</f>
+        <v>10</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="8"/>
-        <v>Eagles</v>
+        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
+        <v>Steelers</v>
       </c>
       <c r="I18" t="b">
-        <f t="shared" si="9"/>
+        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J18" t="b">
-        <f t="shared" si="10"/>
+        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="11"/>
-        <v>Eagles</v>
+        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
+        <v>Steelers</v>
       </c>
       <c r="L18" t="str" cm="1">
         <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
-        <v>Seahawks -2</v>
+        <v>Steelers -7.5</v>
       </c>
       <c r="M18" cm="1">
         <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
-        <v>-2</v>
+        <v>-7.5</v>
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
@@ -1746,7 +1746,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1757,33 +1757,33 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J13 J15:J19">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="J3:J12 J14:J19">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K13 K15:K19">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="K3:K12 K14:K19">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O13 O15:O19">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+  <conditionalFormatting sqref="O3:O12 O14:O19">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1799,17 +1799,17 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>Falcons</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>Cowboys</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2666,17 +2666,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2688,32 +2688,32 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J13 J15:J19">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K15:K19">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13 O15:O19">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,17 +2729,17 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>Colts</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>Giants</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>Jaguars</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>Bears</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>Dolphins</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>Saints</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -3586,1800 +3586,6 @@
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
         <v>-3</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
-  <dimension ref="B1:W16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="21" max="22" width="2.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>-2.5</v>
-      </c>
-      <c r="E3">
-        <v>-2.5</v>
-      </c>
-      <c r="F3">
-        <f>E3*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M3" t="str" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>-6</v>
-      </c>
-      <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4">
-        <f>E4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H4" t="b">
-        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Vikings</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>Vikings</v>
-      </c>
-      <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Vikings 1</v>
-      </c>
-      <c r="M4" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Vikings</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M5" t="str" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>-4</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>Steelers</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>Steelers</v>
-      </c>
-      <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Steelers 2</v>
-      </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>2</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Steelers</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-3</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Raiders 2</v>
-      </c>
-      <c r="M7" cm="1">
-        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>2</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>3.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="H8" t="b">
-        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>Bengals</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
-      </c>
-      <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans -3.5</v>
-      </c>
-      <c r="M8" cm="1">
-        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>-3.5</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Bengals</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>-4.5</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="H9" t="b">
-        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>Patriots</v>
-      </c>
-      <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Bills -1.5</v>
-      </c>
-      <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-1.5</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>-20</v>
-      </c>
-      <c r="E10">
-        <v>-21.5</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>21.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
-        <v>Chiefs</v>
-      </c>
-      <c r="I10" t="b">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Jets 1.5</v>
-      </c>
-      <c r="M10" cm="1">
-        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Chiefs</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>3.5</v>
-      </c>
-      <c r="E11">
-        <v>3.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M11" t="str" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v>Dolphins</v>
-      </c>
-      <c r="W11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Chargers -2</v>
-      </c>
-      <c r="M12" cm="1">
-        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>49ers</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>49ers</v>
-      </c>
-      <c r="K13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>49ers 3</v>
-      </c>
-      <c r="M13" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>3</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>4.5</v>
-      </c>
-      <c r="E14">
-        <v>2.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>-2.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-4.5</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>Bears</v>
-      </c>
-      <c r="I14" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>Bears</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Saints -2</v>
-      </c>
-      <c r="M14" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>-10.5</v>
-      </c>
-      <c r="E15">
-        <v>-3.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="4"/>
-        <v>Eagles</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>Cowboys</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>Eagles</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Eagles -7</v>
-      </c>
-      <c r="M15" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-7</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>8.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>-8.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="5"/>
-        <v>Buccaneers</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>Buccaneers</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>Buccaneers</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Buccaneers -4.5</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-4.5</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v>Buccaneers</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
-  <dimension ref="B1:W16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-6</v>
-      </c>
-      <c r="E3">
-        <v>-5</v>
-      </c>
-      <c r="F3">
-        <f>D3*-1</f>
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <f>E3*-1</f>
-        <v>5</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(E3&lt;0,IF(E3&lt;-7.5,C3,FALSE),IF(AND(E3&gt;3.5,E3&lt;7),C3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>Giants</v>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>Giants</v>
-      </c>
-      <c r="K3" t="str">
-        <f>IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>Giants</v>
-      </c>
-      <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)),D3&gt;0,IF(D3&lt;E3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)))</f>
-        <v>Giants 1</v>
-      </c>
-      <c r="M3" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,(E3-D3),(E3-D3)),D3&gt;0,IF(D3&lt;E3,(D3-E3),(D3-E3)))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>Giants</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
-        <v>56</v>
-      </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>-7</v>
-      </c>
-      <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4">
-        <f>D4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <f>E4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="H4" t="b">
-        <f>IF(E4&lt;0,IF(E4&lt;-7.5,B4,FALSE),IF(AND(E4&gt;3.5,E4&lt;7),B4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J16" si="0">IF(D4&lt;0,IF(D4&lt;=-7.5,C4,IF(AND(ABS(D4)&gt;=3.5,ABS(D4)&lt;=7),B4,FALSE)),IF(AND(D4&gt;=3.5,D4&lt;=7),C4,IF(D4&gt;=7.5,B4,FALSE)))</f>
-        <v>Panthers</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K16" si="1">IF(E4&lt;0,IF(E4&lt;=-7.5,C4,IF(AND(ABS(E4)&gt;=3.5,ABS(E4)&lt;=7),B4,FALSE)),IF(AND(E4&gt;=3.5,E4&lt;=7),C4,IF(E4&gt;=7.5,B4,FALSE)))</f>
-        <v>Panthers</v>
-      </c>
-      <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)),D4&gt;0,IF(D4&lt;E4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M4" t="str" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,(E4-D4),(E4-D4)),D4&gt;0,IF(D4&lt;E4,(D4-E4),(D4-E4)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Panthers</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F16" si="2">D5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G16" si="3">E5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(E5&lt;0,IF(E5&lt;-7.5,C5,FALSE),IF(AND(E5&gt;3.5,E5&lt;7),C5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)),D5&gt;0,IF(D5&lt;E5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M5" t="str" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,(E5-D5),(E5-D5)),D5&gt;0,IF(D5&lt;E5,(D5-E5),(D5-E5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(E6&lt;0,IF(E6&lt;-7.5,C6,FALSE),IF(AND(E6&gt;3.5,E6&lt;7),C6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>Bengals</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>Bengals</v>
-      </c>
-      <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)),D6&gt;0,IF(D6&lt;E6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)))</f>
-        <v>Bengals 0.5</v>
-      </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,(E6-D6),(E6-D6)),D6&gt;0,IF(D6&lt;E6,(D6-E6),(D6-E6)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Bengals</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(E7&lt;0,IF(E7&lt;-7.5,C7,FALSE),IF(AND(E7&gt;3.5,E7&lt;7),C7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)),D7&gt;0,IF(D7&lt;E7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M7" t="str" cm="1">
-        <f t="array" ref="M7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,(E7-D7),(E7-D7)),D7&gt;0,IF(D7&lt;E7,(D7-E7),(D7-E7)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <f>IF(E8&lt;0,IF(E8&lt;-7.5,C8,FALSE),IF(AND(E8&gt;3.5,E8&lt;7),C8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)),D8&gt;0,IF(D8&lt;E8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M8" t="str" cm="1">
-        <f t="array" ref="M8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,(E8-D8),(E8-D8)),D8&gt;0,IF(D8&lt;E8,(D8-E8),(D8-E8)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <f>IF(E9&lt;0,IF(E9&lt;-7.5,#REF!,FALSE),IF(AND(E9&gt;3.5,E9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)),D9&gt;0,IF(D9&lt;E9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)))</f>
-        <v>Football Team 4</v>
-      </c>
-      <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,(E9-D9),(E9-D9)),D9&gt;0,IF(D9&lt;E9,(D9-E9),(D9-E9)))</f>
-        <v>4</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="H10" t="b">
-        <f t="shared" ref="H10:H16" si="4">IF(E10&lt;0,IF(E10&lt;-7.5,C10,FALSE),IF(AND(E10&gt;3.5,E10&lt;7),C10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>Bills</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>Bills</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>Bills</v>
-      </c>
-      <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)),D10&gt;0,IF(D10&lt;E10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M10" t="str" cm="1">
-        <f t="array" ref="M10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,(E10-D10),(E10-D10)),D10&gt;0,IF(D10&lt;E10,(D10-E10),(D10-E10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Bills</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-7.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>Jaguars</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>Chargers</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)),D11&gt;0,IF(D11&lt;E11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)))</f>
-        <v>Chargers -0.5</v>
-      </c>
-      <c r="M11" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,(E11-D11),(E11-D11)),D11&gt;0,IF(D11&lt;E11,(D11-E11),(D11-E11)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v>Raiders</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>Raiders</v>
-      </c>
-      <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)),D12&gt;0,IF(D12&lt;E12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)))</f>
-        <v>Buccaneers -2</v>
-      </c>
-      <c r="M12" cm="1">
-        <f t="array" ref="M12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,(E12-D12),(E12-D12)),D12&gt;0,IF(D12&lt;E12,(D12-E12),(D12-E12)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>9.5</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-9.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>-7</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>Broncos</v>
-      </c>
-      <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)),D13&gt;0,IF(D13&lt;E13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)))</f>
-        <v>Broncos 2.5</v>
-      </c>
-      <c r="M13" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,(E13-D13),(E13-D13)),D13&gt;0,IF(D13&lt;E13,(D13-E13),(D13-E13)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>Broncos</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>-5.5</v>
-      </c>
-      <c r="E14">
-        <v>-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H14" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="5"/>
-        <v>49ers</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>49ers</v>
-      </c>
-      <c r="K14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)),D14&gt;0,IF(D14&lt;E14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)))</f>
-        <v>49ers 2.5</v>
-      </c>
-      <c r="M14" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,(E14-D14),(E14-D14)),D14&gt;0,IF(D14&lt;E14,(D14-E14),(D14-E14)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>-7</v>
-      </c>
-      <c r="E15">
-        <v>-6</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H15" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>Bears</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>Bears</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)),D15&gt;0,IF(D15&lt;E15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)))</f>
-        <v>Bears 1</v>
-      </c>
-      <c r="M15" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,(E15-D15),(E15-D15)),D15&gt;0,IF(D15&lt;E15,(D15-E15),(D15-E15)))</f>
-        <v>1</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Bears</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>Cardinals</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)),D16&gt;0,IF(D16&lt;E16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)))</f>
-        <v>Seahawks -0.5</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,(E16-D16),(E16-D16)),D16&gt;0,IF(D16&lt;E16,(D16-E16),(D16-E16)))</f>
-        <v>-0.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -5412,6 +3618,1800 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
+  <dimension ref="B1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>-2.5</v>
+      </c>
+      <c r="E3">
+        <v>-2.5</v>
+      </c>
+      <c r="F3">
+        <f>E3*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <f>E4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Vikings</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Vikings</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>Vikings 1</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v>Vikings</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Steelers</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>Steelers 2</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
+        <v>2</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Steelers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Raiders 2</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
+        <v>2</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Bengals</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Titans -3.5</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
+        <v>-3.5</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>-4.5</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>Patriots</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Bills -1.5</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>-21.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <v>Chiefs</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>Jets 1.5</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Chiefs</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v>Dolphins</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Chargers -2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
+      </c>
+      <c r="E13">
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>49ers</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>49ers</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>49ers 3</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
+        <v>3</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>Bears</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>Bears</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>Saints -2</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>-10.5</v>
+      </c>
+      <c r="E15">
+        <v>-3.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>Eagles</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cowboys</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>Eagles</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Eagles -7</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
+        <v>-7</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>8.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="5"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Buccaneers -4.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
+        <v>-4.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v>Buccaneers</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
+  <dimension ref="B1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="8" max="9" width="9.26953125" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <f>D3*-1</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f>E3*-1</f>
+        <v>5</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(E3&lt;0,IF(E3&lt;-7.5,C3,FALSE),IF(AND(E3&gt;3.5,E3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>Giants</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>Giants</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>Giants</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)),D3&gt;0,IF(D3&lt;E3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)))</f>
+        <v>Giants 1</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,(E3-D3),(E3-D3)),D3&gt;0,IF(D3&lt;E3,(D3-E3),(D3-E3)))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v>Giants</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
+        <v>56</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <f>D4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>E4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(E4&lt;0,IF(E4&lt;-7.5,B4,FALSE),IF(AND(E4&gt;3.5,E4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J16" si="0">IF(D4&lt;0,IF(D4&lt;=-7.5,C4,IF(AND(ABS(D4)&gt;=3.5,ABS(D4)&lt;=7),B4,FALSE)),IF(AND(D4&gt;=3.5,D4&lt;=7),C4,IF(D4&gt;=7.5,B4,FALSE)))</f>
+        <v>Panthers</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K16" si="1">IF(E4&lt;0,IF(E4&lt;=-7.5,C4,IF(AND(ABS(E4)&gt;=3.5,ABS(E4)&lt;=7),B4,FALSE)),IF(AND(E4&gt;=3.5,E4&lt;=7),C4,IF(E4&gt;=7.5,B4,FALSE)))</f>
+        <v>Panthers</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)),D4&gt;0,IF(D4&lt;E4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,(E4-D4),(E4-D4)),D4&gt;0,IF(D4&lt;E4,(D4-E4),(D4-E4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v>Panthers</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="2">D5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G16" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(E5&lt;0,IF(E5&lt;-7.5,C5,FALSE),IF(AND(E5&gt;3.5,E5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)),D5&gt;0,IF(D5&lt;E5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,(E5-D5),(E5-D5)),D5&gt;0,IF(D5&lt;E5,(D5-E5),(D5-E5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(E6&lt;0,IF(E6&lt;-7.5,C6,FALSE),IF(AND(E6&gt;3.5,E6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bengals</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)),D6&gt;0,IF(D6&lt;E6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)))</f>
+        <v>Bengals 0.5</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,(E6-D6),(E6-D6)),D6&gt;0,IF(D6&lt;E6,(D6-E6),(D6-E6)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(E7&lt;0,IF(E7&lt;-7.5,C7,FALSE),IF(AND(E7&gt;3.5,E7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)),D7&gt;0,IF(D7&lt;E7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,(E7-D7),(E7-D7)),D7&gt;0,IF(D7&lt;E7,(D7-E7),(D7-E7)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(E8&lt;0,IF(E8&lt;-7.5,C8,FALSE),IF(AND(E8&gt;3.5,E8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)),D8&gt;0,IF(D8&lt;E8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,(E8-D8),(E8-D8)),D8&gt;0,IF(D8&lt;E8,(D8-E8),(D8-E8)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(E9&lt;0,IF(E9&lt;-7.5,#REF!,FALSE),IF(AND(E9&gt;3.5,E9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)),D9&gt;0,IF(D9&lt;E9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)))</f>
+        <v>Football Team 4</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,(E9-D9),(E9-D9)),D9&gt;0,IF(D9&lt;E9,(D9-E9),(D9-E9)))</f>
+        <v>4</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" ref="H10:H16" si="4">IF(E10&lt;0,IF(E10&lt;-7.5,C10,FALSE),IF(AND(E10&gt;3.5,E10&lt;7),C10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>Bills</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bills</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>Bills</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)),D10&gt;0,IF(D10&lt;E10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,(E10-D10),(E10-D10)),D10&gt;0,IF(D10&lt;E10,(D10-E10),(D10-E10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Bills</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-7.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaguars</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>Chargers</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)),D11&gt;0,IF(D11&lt;E11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)))</f>
+        <v>Chargers -0.5</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,(E11-D11),(E11-D11)),D11&gt;0,IF(D11&lt;E11,(D11-E11),(D11-E11)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>Raiders</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>Raiders</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)),D12&gt;0,IF(D12&lt;E12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)))</f>
+        <v>Buccaneers -2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,(E12-D12),(E12-D12)),D12&gt;0,IF(D12&lt;E12,(D12-E12),(D12-E12)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>9.5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)),D13&gt;0,IF(D13&lt;E13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)))</f>
+        <v>Broncos 2.5</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,(E13-D13),(E13-D13)),D13&gt;0,IF(D13&lt;E13,(D13-E13),(D13-E13)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v>Broncos</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>-5.5</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v>49ers</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>49ers</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)),D14&gt;0,IF(D14&lt;E14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)))</f>
+        <v>49ers 2.5</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,(E14-D14),(E14-D14)),D14&gt;0,IF(D14&lt;E14,(D14-E14),(D14-E14)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>-7</v>
+      </c>
+      <c r="E15">
+        <v>-6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bears</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>Bears</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)),D15&gt;0,IF(D15&lt;E15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)))</f>
+        <v>Bears 1</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,(E15-D15),(E15-D15)),D15&gt;0,IF(D15&lt;E15,(D15-E15),(D15-E15)))</f>
+        <v>1</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v>Bears</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>Cardinals</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)),D16&gt;0,IF(D16&lt;E16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)))</f>
+        <v>Seahawks -0.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,(E16-D16),(E16-D16)),D16&gt;0,IF(D16&lt;E16,(D16-E16),(D16-E16)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
@@ -5424,16 +5424,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>2</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>2</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0.54999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>10</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>2</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>2</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0.38596491228070168</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I9" t="s">
         <v>58</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I10" t="s">
         <v>59</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J11">
         <f>J9*J10</f>
         <v>0.32432432432432434</v>
@@ -5650,7 +5650,7 @@
         <v>-1.027027027027027</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
         <v>54</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I14" t="s">
         <v>58</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I15" t="s">
         <v>59</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>0.35135135135135132</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J16">
         <f>J14*J15</f>
         <v>0.64864864864864868</v>
@@ -5700,7 +5700,7 @@
         <v>-5.4054054054053946E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>54</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
         <v>58</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I20" t="s">
         <v>59</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.35">
       <c r="J21">
         <f>J19*J20</f>
         <v>0.94444444444444442</v>

--- a/data/odds calc.xlsx
+++ b/data/odds calc.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\football\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF7011-961D-423B-ADBC-70A3680EBD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12613F22-B4EC-4465-B192-58D38B8BA638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="750" windowWidth="19200" windowHeight="10210" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
+    <workbookView xWindow="1050" yWindow="410" windowWidth="24740" windowHeight="13830" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 11" sheetId="6" r:id="rId1"/>
-    <sheet name="Week 10" sheetId="5" r:id="rId2"/>
-    <sheet name="Week 9" sheetId="3" r:id="rId3"/>
-    <sheet name="Week 8" sheetId="2" r:id="rId4"/>
-    <sheet name="Week 7" sheetId="1" r:id="rId5"/>
-    <sheet name="Probablities" sheetId="4" r:id="rId6"/>
+    <sheet name="Week 13" sheetId="7" r:id="rId1"/>
+    <sheet name="Week 12" sheetId="6" r:id="rId2"/>
+    <sheet name="Week 11" sheetId="5" r:id="rId3"/>
+    <sheet name="Week 10" sheetId="3" r:id="rId4"/>
+    <sheet name="Week 9" sheetId="2" r:id="rId5"/>
+    <sheet name="Week 8" sheetId="1" r:id="rId6"/>
+    <sheet name="Probablities" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="63">
   <si>
     <t>Home</t>
   </si>
@@ -307,7 +308,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -764,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96BF1A-B966-4D0A-8107-F9A995F884F7}">
   <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,11 +931,11 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
+        <v>461.99999999999994</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
@@ -858,56 +943,56 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>-4</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>-2.5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
-        <v>-3</v>
+        <f t="shared" ref="G3:G17" si="0">D3*-1</f>
+        <v>3</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="str">
         <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
+        <v>Lions</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J17" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>Lions</v>
       </c>
       <c r="K3" t="b">
-        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <f t="shared" ref="K3:K17" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Texans -0.5</v>
+        <v>Lions 1</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v/>
+        <v>Lions</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -918,56 +1003,56 @@
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E4">
-        <v>-1.5</v>
+        <v>-10.5</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4" t="b">
+        <v>10</v>
+      </c>
+      <c r="H4" t="str">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>0</v>
+        <v>Bengals</v>
       </c>
       <c r="I4" t="b">
         <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Cowboys -1.5</v>
+        <v>Bengals 0.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -975,7 +1060,7 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v/>
+        <v>Dolphins</v>
       </c>
       <c r="W4" t="s">
         <v>43</v>
@@ -983,48 +1068,48 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="3">E5*-1</f>
+        <v>-3.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="H5" t="str">
+      <c r="H5" t="b">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>Bengals</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>Falcons</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Giants 9</v>
+        <v>Falcons 0.5</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
@@ -1032,7 +1117,7 @@
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v>Bengals</v>
+        <v>Falcons</v>
       </c>
       <c r="W5" t="s">
         <v>44</v>
@@ -1040,24 +1125,24 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>-4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -1065,23 +1150,23 @@
       </c>
       <c r="I6" t="str">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Chargers 1.5</v>
+        <v>Jets 0.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -1089,41 +1174,41 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>3.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>-3.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" t="b">
         <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>Titans</v>
+        <v>0</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>Titans</v>
+        <v>Texans</v>
       </c>
       <c r="K7" t="b">
         <f t="shared" si="2"/>
@@ -1131,11 +1216,11 @@
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Titans 1</v>
+        <v>Texans 0.5</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
@@ -1143,29 +1228,29 @@
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v>Titans</v>
+        <v>Texans</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
@@ -1175,21 +1260,21 @@
         <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Browns</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Browns</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Raiders 3</v>
-      </c>
-      <c r="M8" t="e" cm="1">
+        <v>Titans -0.5</v>
+      </c>
+      <c r="M8" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>#N/A</v>
+        <v>-0.5</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
@@ -1197,33 +1282,33 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v/>
+        <v>Browns</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>7.5</v>
+        <v>-10</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>-9.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
-      </c>
-      <c r="H9" t="b">
+        <v>10</v>
+      </c>
+      <c r="H9" t="e">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I9" t="b">
         <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
@@ -1231,77 +1316,77 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>Jaguars</v>
+        <v>Vikings</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Browns</v>
+        <v>Vikings</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Browns -1.5</v>
+        <v>Vikings -0.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
+        <v>Vikings</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <f t="shared" ref="H10:H17" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Jets</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
+        <f t="shared" ref="I10:I17" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Dolphins -0.5</v>
-      </c>
-      <c r="M10" cm="1">
+        <v>Rams 2.5</v>
+      </c>
+      <c r="M10" t="e" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>-0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
@@ -1310,48 +1395,48 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-10.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H11" t="b">
+        <v>10.5</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Seahawks</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>Seahawks</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>Seahawks</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Cardinals 1</v>
-      </c>
-      <c r="M11" t="e" cm="1">
+        <v>Seahawks -3</v>
+      </c>
+      <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>#N/A</v>
+        <v>-3</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
@@ -1359,7 +1444,7 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
+        <v>Seahawks</v>
       </c>
       <c r="W11" t="s">
         <v>61</v>
@@ -1367,24 +1452,24 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="E12">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="b">
         <f t="shared" si="4"/>
@@ -1394,9 +1479,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>Panthers</v>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <f t="shared" si="2"/>
@@ -1404,19 +1489,19 @@
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Panthers 0.5</v>
+        <v>Patriots 1</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v>Panthers</v>
+        <v/>
       </c>
       <c r="W12" t="s">
         <v>62</v>
@@ -1424,28 +1509,28 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>16.5</v>
+        <v>-8</v>
       </c>
       <c r="E13">
-        <v>5.5</v>
+        <v>-7</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>-5.5</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-16.5</v>
-      </c>
-      <c r="H13" t="b">
+        <v>8</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Packers</v>
       </c>
       <c r="I13" t="b">
         <f t="shared" si="5"/>
@@ -1453,19 +1538,19 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>Broncos</v>
+        <v>Eagles</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>Saints</v>
+        <v>Packers</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Saints -11</v>
+        <v>Packers -1</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
@@ -1478,28 +1563,28 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>-5.5</v>
+        <v>-13.5</v>
       </c>
       <c r="E14">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="H14" t="b">
+        <v>13.5</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Chiefs</v>
       </c>
       <c r="I14" t="b">
         <f t="shared" si="5"/>
@@ -1507,19 +1592,19 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>49ers 1.5</v>
+        <v>Chiefs -0.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
@@ -1527,29 +1612,29 @@
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>3.5</v>
+        <v>-7</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -1559,75 +1644,75 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Buccaneers</v>
+        <v>Football Team</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Chiefs -0.5</v>
+        <v>Football Team 4</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v>MAYBE</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v/>
+        <v>Football Team</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>-7.5</v>
+        <v>2.5</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
-        <v>8</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
-        <v>Packers</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
-        <v>Packers</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
-        <v>Packers</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Packers -0.5</v>
+        <v>49ers 3.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -1635,115 +1720,61 @@
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v>Packers</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>-8.5</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
-        <v>-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
-        <v>-6</v>
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="8"/>
-        <v>Eagles</v>
+        <f t="shared" si="4"/>
+        <v>Ravens</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>Ravens</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="11"/>
-        <v>Eagles</v>
+        <f t="shared" si="2"/>
+        <v>Ravens</v>
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Seahawks -3</v>
+        <v>Ravens -1</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>-10</v>
-      </c>
-      <c r="E18">
-        <v>-2.5</v>
-      </c>
-      <c r="F18">
-        <f>E18*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="G18">
-        <f>D18*-1</f>
-        <v>10</v>
-      </c>
-      <c r="H18" t="str">
-        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="I18" t="b">
-        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="str">
-        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="L18" t="str" cm="1">
-        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
-        <v>Steelers -7.5</v>
-      </c>
-      <c r="M18" cm="1">
-        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
-        <v>-7.5</v>
-      </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O18" t="str" cm="1">
-        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
-        <v/>
+        <v>Ravens</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
@@ -1758,32 +1789,32 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12 J14:J19">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K12 K14:K19">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O12 O14:O19">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1792,6 +1823,1034 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
+  <dimension ref="B1:W19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
+        <v>252</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <f>E3*-1</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>Texans -0.5</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
+        <v>461.99999999999994</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>-1.5</v>
+      </c>
+      <c r="F4">
+        <f>E4*-1</f>
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>Cowboys -1.5</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
+        <v>Bengals</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <v>Giants 9</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
+        <v>9</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>-4.5</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>Chargers</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>Chargers</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Chargers</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>Chargers 1.5</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Chargers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>Titans</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Titans</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Titans 1</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
+        <v>1</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v>Titans</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Raiders 3</v>
+      </c>
+      <c r="M8" t="e" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>7.5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaguars</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>Browns</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Browns -1.5</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>7.5</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Jets</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>Dolphins -0.5</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>Cardinals 1</v>
+      </c>
+      <c r="M11" t="e" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>-3</v>
+      </c>
+      <c r="E12">
+        <v>-3.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>Panthers</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Panthers 0.5</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v>Panthers</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>16.5</v>
+      </c>
+      <c r="E13">
+        <v>5.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-5.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-16.5</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>Saints</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>Saints -11</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
+        <v>-11</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>-5.5</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>49ers</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>49ers</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>49ers 1.5</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Chiefs -0.5</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>-8</v>
+      </c>
+      <c r="E16">
+        <v>-7.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
+        <v>7.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
+        <v>8</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
+        <v>Packers</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Packers -0.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v>Packers</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="8"/>
+        <v>Eagles</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="11"/>
+        <v>Eagles</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
+        <v>Seahawks -3</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
+        <v>-3</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>-10</v>
+      </c>
+      <c r="E18">
+        <v>-2.5</v>
+      </c>
+      <c r="F18">
+        <f>E18*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <f>D18*-1</f>
+        <v>10</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="I18" t="b">
+        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
+        <v>Steelers -7.5</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J12 J14:J19">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K12 K14:K19">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O12 O14:O19">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A3E5F-37EF-4B0A-8740-C47566194EB6}">
   <dimension ref="B1:W19"/>
   <sheetViews>
@@ -2688,32 +3747,32 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J13 J15:J19">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K15:K19">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13 O15:O19">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2721,7 +3780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A6FAFB-C442-4C7F-AE94-F3B7E9347D67}">
   <dimension ref="B1:W16"/>
   <sheetViews>
@@ -3603,17 +4662,17 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3621,7 +4680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
   <dimension ref="B1:W16"/>
   <sheetViews>
@@ -4500,17 +5559,17 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4518,7 +5577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
   <dimension ref="B1:W16"/>
   <sheetViews>
@@ -5397,17 +6456,17 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5416,7 +6475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E052039D-DD95-4FC1-B4DE-BF271006E0B2}">
   <dimension ref="B1:N21"/>
   <sheetViews>

--- a/data/odds calc.xlsx
+++ b/data/odds calc.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\football\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12613F22-B4EC-4465-B192-58D38B8BA638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D913F-E747-4BF3-AEFD-177F0E7792FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="410" windowWidth="24740" windowHeight="13830" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19212" windowHeight="12168" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 13" sheetId="7" r:id="rId1"/>
-    <sheet name="Week 12" sheetId="6" r:id="rId2"/>
-    <sheet name="Week 11" sheetId="5" r:id="rId3"/>
-    <sheet name="Week 10" sheetId="3" r:id="rId4"/>
-    <sheet name="Week 9" sheetId="2" r:id="rId5"/>
-    <sheet name="Week 8" sheetId="1" r:id="rId6"/>
-    <sheet name="Probablities" sheetId="4" r:id="rId7"/>
+    <sheet name="Week 14" sheetId="8" r:id="rId1"/>
+    <sheet name="Week 13" sheetId="7" r:id="rId2"/>
+    <sheet name="Week 12" sheetId="6" r:id="rId3"/>
+    <sheet name="Week 11" sheetId="5" r:id="rId4"/>
+    <sheet name="Week 10" sheetId="3" r:id="rId5"/>
+    <sheet name="Week 9" sheetId="2" r:id="rId6"/>
+    <sheet name="Week 8" sheetId="1" r:id="rId7"/>
+    <sheet name="Probablities" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="63">
   <si>
     <t>Home</t>
   </si>
@@ -849,24 +850,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96BF1A-B966-4D0A-8107-F9A995F884F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB924F0-8F6F-4777-AEBC-57FF7786E2F9}">
   <dimension ref="B1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.26953125" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -889,7 +890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -935,32 +936,32 @@
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>461.99999999999994</v>
+        <v>126</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>-3</v>
+        <v>-4.5</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>-6.5</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G17" si="0">D3*-1</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
@@ -968,91 +969,91 @@
       </c>
       <c r="I3" t="str">
         <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>Lions</v>
+        <v>Patriots</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J17" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>Lions</v>
-      </c>
-      <c r="K3" t="b">
+        <v>Patriots</v>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" ref="K3:K17" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
+        <v>Patriots</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Lions 1</v>
+        <v>Patriots 2</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>Lions</v>
+        <v>Patriots</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
       </c>
       <c r="S3">
         <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
-        <v>461.99999999999994</v>
+        <v>126</v>
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>-10</v>
+        <v>1.5</v>
       </c>
       <c r="E4">
-        <v>-10.5</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>10.5</v>
+        <v>-1.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H4" t="str">
+        <v>-1.5</v>
+      </c>
+      <c r="H4" t="b">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>Bengals</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Bengals 0.5</v>
-      </c>
-      <c r="M4" cm="1">
+        <v>No MOV</v>
+      </c>
+      <c r="M4" t="str" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>0.5</v>
+        <v>No MOV</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -1060,32 +1061,32 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Dolphins</v>
+        <v/>
       </c>
       <c r="W4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3.5</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F17" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>-3.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
       </c>
       <c r="H5" t="b">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
@@ -1095,54 +1096,54 @@
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>Falcons</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Falcons 0.5</v>
+        <v>Cowboys -0.5</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v>IGNORE</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v>Falcons</v>
+        <v/>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>7.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -1150,23 +1151,23 @@
       </c>
       <c r="I6" t="str">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Raiders</v>
+        <v>Vikings</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Raiders</v>
+        <v>Vikings</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>Raiders</v>
+        <v>Vikings</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Jets 0.5</v>
+        <v>Buccaneers -0.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -1174,29 +1175,29 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Raiders</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Vikings</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>-3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
@@ -1208,15 +1209,15 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>Texans</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>Chiefs</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Texans 0.5</v>
+        <v>Dolphins 0.5</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
@@ -1228,29 +1229,29 @@
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v>Texans</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Dolphins</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
@@ -1260,21 +1261,21 @@
         <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>Browns</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>Browns</v>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans -0.5</v>
-      </c>
-      <c r="M8" cm="1">
+        <v>No MOV</v>
+      </c>
+      <c r="M8" t="str" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>-0.5</v>
+        <v>No MOV</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
@@ -1282,53 +1283,53 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Browns</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
       <c r="D9">
-        <v>-10</v>
+        <v>7.5</v>
       </c>
       <c r="E9">
-        <v>-9.5</v>
+        <v>9.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>-9.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H9" t="e">
+        <v>-7.5</v>
+      </c>
+      <c r="H9" t="b">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
         <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
+        <v>Jaguars</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>Vikings</v>
+        <v>Titans</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Vikings</v>
+        <v>Titans</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Vikings -0.5</v>
+        <v>Jaguars 2</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
@@ -1336,53 +1337,53 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v>Vikings</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Titans</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="b">
         <f t="shared" ref="H10:H17" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="str">
         <f t="shared" ref="I10:I17" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>Broncos</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Broncos</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Rams 2.5</v>
-      </c>
-      <c r="M10" t="e" cm="1">
+        <v>Broncos 0.5</v>
+      </c>
+      <c r="M10" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
@@ -1390,106 +1391,106 @@
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Broncos</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>-10.5</v>
-      </c>
       <c r="E11">
-        <v>-7.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="H11" t="str">
+        <v>-3</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>Colts -0.5</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>-13.5</v>
+      </c>
+      <c r="E12">
+        <v>-14.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="4"/>
         <v>Seahawks</v>
       </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>Seahawks</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>Seahawks</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Seahawks -3</v>
-      </c>
-      <c r="M11" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>-3</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v>Seahawks</v>
-      </c>
-      <c r="W11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>-1.5</v>
-      </c>
-      <c r="E12">
-        <v>-2.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="I12" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>Seahawks</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>Seahawks</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Patriots 1</v>
+        <v>Jets 1</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
@@ -1501,110 +1502,110 @@
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
+        <v>Seahawks</v>
       </c>
       <c r="W12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="E13">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H13" t="str">
+        <v>3</v>
+      </c>
+      <c r="H13" t="b">
         <f t="shared" si="4"/>
-        <v>Packers</v>
-      </c>
-      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>Football Team</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>Eagles</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>Packers</v>
+        <v>Football Team</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Packers -1</v>
+        <v>Football Team 1</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v>MAYBE</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Football Team</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>-13.5</v>
+        <v>2.5</v>
       </c>
       <c r="E14">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="H14" t="str">
+        <v>-2.5</v>
+      </c>
+      <c r="H14" t="b">
         <f t="shared" si="4"/>
-        <v>Chiefs</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>Chiefs</v>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Chiefs -0.5</v>
+        <v>Falcons 3.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
@@ -1612,29 +1613,29 @@
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>Chiefs</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>-11</v>
+        <v>6.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>-6.5</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -1646,49 +1647,49 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
-        <v>Steelers</v>
+        <v>Eagles</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Football Team</v>
+        <v>Eagles</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Football Team 4</v>
+        <v>Saints -0.5</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>4</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Football Team</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Eagles</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>-2.5</v>
+        <v>-7.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="H16" t="b">
         <f t="shared" si="4"/>
@@ -1698,21 +1699,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>Packers</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>Packers</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>49ers 3.5</v>
+        <v>Packers -0.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -1720,53 +1721,53 @@
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+        <v>Packers</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>-8.5</v>
+        <v>-2</v>
       </c>
       <c r="E17">
-        <v>-7.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="H17" t="str">
+        <v>2</v>
+      </c>
+      <c r="H17" t="b">
         <f t="shared" si="4"/>
-        <v>Ravens</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>Ravens</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>Ravens</v>
+      <c r="J17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Ravens -1</v>
+        <v>Bills 4.5</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
@@ -1774,10 +1775,64 @@
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
-        <v>Ravens</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>2.5</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="6">E18*-1</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="7">D18*-1</f>
+        <v>-2.5</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" ref="H18" si="8">IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" ref="I18" si="9">IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" ref="J18" si="10">IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" ref="K18" si="11">IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M18" t="str" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1823,24 +1878,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96BF1A-B966-4D0A-8107-F9A995F884F7}">
   <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.26953125" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1905,68 +1960,68 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
+        <v>461.99999999999994</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>-4</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>-2.5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
-        <v>-3</v>
+        <f t="shared" ref="G3:G17" si="0">D3*-1</f>
+        <v>3</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="str">
         <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
+        <v>Lions</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J17" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>Lions</v>
       </c>
       <c r="K3" t="b">
-        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <f t="shared" ref="K3:K17" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Texans -0.5</v>
+        <v>Lions 1</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v/>
+        <v>Lions</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -1977,56 +2032,56 @@
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E4">
-        <v>-1.5</v>
+        <v>-10.5</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4" t="b">
+        <v>10</v>
+      </c>
+      <c r="H4" t="str">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>0</v>
+        <v>Bengals</v>
       </c>
       <c r="I4" t="b">
         <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Cowboys -1.5</v>
+        <v>Bengals 0.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -2034,56 +2089,56 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v/>
+        <v>Dolphins</v>
       </c>
       <c r="W4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="3">E5*-1</f>
+        <v>-3.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="H5" t="str">
+      <c r="H5" t="b">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>Bengals</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>Falcons</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Giants 9</v>
+        <v>Falcons 0.5</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
@@ -2091,32 +2146,32 @@
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v>Bengals</v>
+        <v>Falcons</v>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>-4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -2124,23 +2179,23 @@
       </c>
       <c r="I6" t="str">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Chargers 1.5</v>
+        <v>Jets 0.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -2148,41 +2203,41 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Chargers</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Raiders</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>3.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>-3.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" t="b">
         <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>Titans</v>
+        <v>0</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>Titans</v>
+        <v>Texans</v>
       </c>
       <c r="K7" t="b">
         <f t="shared" si="2"/>
@@ -2190,11 +2245,11 @@
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Titans 1</v>
+        <v>Texans 0.5</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
@@ -2202,29 +2257,29 @@
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v>Titans</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Texans</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
@@ -2234,21 +2289,21 @@
         <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Browns</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Browns</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Raiders 3</v>
-      </c>
-      <c r="M8" t="e" cm="1">
+        <v>Titans -0.5</v>
+      </c>
+      <c r="M8" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>#N/A</v>
+        <v>-0.5</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
@@ -2256,33 +2311,33 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Browns</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>7.5</v>
+        <v>-10</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>-9.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
-      </c>
-      <c r="H9" t="b">
+        <v>10</v>
+      </c>
+      <c r="H9" t="e">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I9" t="b">
         <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
@@ -2290,127 +2345,127 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>Jaguars</v>
+        <v>Vikings</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Browns</v>
+        <v>Vikings</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Browns -1.5</v>
+        <v>Vikings -0.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Vikings</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <f t="shared" ref="H10:H17" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Jets</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
+        <f t="shared" ref="I10:I17" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Dolphins -0.5</v>
-      </c>
-      <c r="M10" cm="1">
+        <v>Rams 2.5</v>
+      </c>
+      <c r="M10" t="e" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>-0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-10.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H11" t="b">
+        <v>10.5</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Seahawks</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>Seahawks</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>Seahawks</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Cardinals 1</v>
-      </c>
-      <c r="M11" t="e" cm="1">
+        <v>Seahawks -3</v>
+      </c>
+      <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>#N/A</v>
+        <v>-3</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
@@ -2418,32 +2473,32 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
+        <v>Seahawks</v>
       </c>
       <c r="W11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="E12">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="b">
         <f t="shared" si="4"/>
@@ -2453,9 +2508,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>Panthers</v>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <f t="shared" si="2"/>
@@ -2463,48 +2518,48 @@
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Panthers 0.5</v>
+        <v>Patriots 1</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v>Panthers</v>
+        <v/>
       </c>
       <c r="W12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>16.5</v>
+        <v>-8</v>
       </c>
       <c r="E13">
-        <v>5.5</v>
+        <v>-7</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>-5.5</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-16.5</v>
-      </c>
-      <c r="H13" t="b">
+        <v>8</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Packers</v>
       </c>
       <c r="I13" t="b">
         <f t="shared" si="5"/>
@@ -2512,19 +2567,19 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>Broncos</v>
+        <v>Eagles</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>Saints</v>
+        <v>Packers</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Saints -11</v>
+        <v>Packers -1</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
@@ -2535,30 +2590,30 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>-5.5</v>
+        <v>-13.5</v>
       </c>
       <c r="E14">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="H14" t="b">
+        <v>13.5</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Chiefs</v>
       </c>
       <c r="I14" t="b">
         <f t="shared" si="5"/>
@@ -2566,19 +2621,19 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>49ers 1.5</v>
+        <v>Chiefs -0.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
@@ -2586,29 +2641,29 @@
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Chiefs</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>3.5</v>
+        <v>-7</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -2618,75 +2673,75 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Buccaneers</v>
+        <v>Football Team</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Chiefs -0.5</v>
+        <v>Football Team 4</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v>MAYBE</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Football Team</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>-7.5</v>
+        <v>2.5</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
-        <v>8</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
-        <v>Packers</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
-        <v>Packers</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
-        <v>Packers</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Packers -0.5</v>
+        <v>49ers 3.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -2694,118 +2749,64 @@
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v>Packers</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>-8.5</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
-        <v>-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
-        <v>-6</v>
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="8"/>
-        <v>Eagles</v>
+        <f t="shared" si="4"/>
+        <v>Ravens</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>Ravens</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="11"/>
-        <v>Eagles</v>
+        <f t="shared" si="2"/>
+        <v>Ravens</v>
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Seahawks -3</v>
+        <v>Ravens -1</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>-10</v>
-      </c>
-      <c r="E18">
-        <v>-2.5</v>
-      </c>
-      <c r="F18">
-        <f>E18*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="G18">
-        <f>D18*-1</f>
-        <v>10</v>
-      </c>
-      <c r="H18" t="str">
-        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="I18" t="b">
-        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="str">
-        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="L18" t="str" cm="1">
-        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
-        <v>Steelers -7.5</v>
-      </c>
-      <c r="M18" cm="1">
-        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
-        <v>-7.5</v>
-      </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O18" t="str" cm="1">
-        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+        <v>Ravens</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2851,24 +2852,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A3E5F-37EF-4B0A-8740-C47566194EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
   <dimension ref="B1:W19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.26953125" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2933,68 +2934,68 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-3</v>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>-5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
-        <v>3</v>
+        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
+        <v>-3</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" t="b">
         <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>Cardinals</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>Cardinals</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
-        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Cardinals 2.5</v>
+        <v>Texans -0.5</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>Cardinals</v>
+        <v/>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -3011,26 +3012,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="b">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
@@ -3050,11 +3051,11 @@
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Browns -0.5</v>
+        <v>Cowboys -1.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -3068,30 +3069,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
+        <v>3</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="b">
+        <v>-6</v>
+      </c>
+      <c r="H5" t="str">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>0</v>
+        <v>Bengals</v>
       </c>
       <c r="I5" t="b">
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
@@ -3101,50 +3102,50 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Football Team -1.5</v>
-      </c>
-      <c r="M5" t="e" cm="1">
+        <v>Giants 9</v>
+      </c>
+      <c r="M5" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
+        <v>Bengals</v>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>-4.5</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-10.5</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -3152,23 +3153,23 @@
       </c>
       <c r="I6" t="str">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Steelers</v>
+        <v>Chargers</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Steelers</v>
+        <v>Chargers</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>Steelers</v>
+        <v>Chargers</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Steelers -0.5</v>
+        <v>Chargers 1.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -3176,41 +3177,41 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Steelers</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>Chargers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="str">
         <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>Titans</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Titans</v>
       </c>
       <c r="K7" t="b">
         <f t="shared" si="2"/>
@@ -3218,65 +3219,65 @@
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Lions 2</v>
+        <v>Titans 1</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>Titans</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" t="b">
         <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>Titans</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>Titans</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>Titans</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans 0.5</v>
-      </c>
-      <c r="M8" cm="1">
+        <v>Raiders 3</v>
+      </c>
+      <c r="M8" t="e" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
@@ -3284,29 +3285,29 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Titans</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>-3.5</v>
+        <v>7.5</v>
       </c>
       <c r="E9">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="H9" t="b">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
@@ -3318,107 +3319,107 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>Falcons</v>
+        <v>Jaguars</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Falcons</v>
+        <v>Browns</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Falcons 3.5</v>
+        <v>Browns -1.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v>Falcons</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="E10">
-        <v>-2.5</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>-7</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-7.5</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Jets</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Patriots 4.5</v>
+        <v>Dolphins -0.5</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>4.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="H11" t="str">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="b">
         <f t="shared" si="4"/>
-        <v>Broncos</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="5"/>
@@ -3428,54 +3429,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>Broncos</v>
+      <c r="K11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Dolphins 5</v>
-      </c>
-      <c r="M11" cm="1">
+        <v>Cardinals 1</v>
+      </c>
+      <c r="M11" t="e" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v>Broncos</v>
+        <v/>
       </c>
       <c r="W11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E12">
-        <v>-8.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H12" t="str">
+        <v>3</v>
+      </c>
+      <c r="H12" t="b">
         <f t="shared" si="4"/>
-        <v>Chargers</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <f t="shared" si="5"/>
@@ -3483,52 +3484,52 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
-        <v>Chargers</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v>Chargers</v>
+        <v>Panthers</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Chargers -1.5</v>
+        <v>Panthers 0.5</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v>Chargers</v>
+        <v>Panthers</v>
       </c>
       <c r="W12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>-1.5</v>
+        <v>16.5</v>
       </c>
       <c r="E13">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>-2.5</v>
+        <v>-5.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H13" t="b">
         <f t="shared" si="4"/>
@@ -3538,51 +3539,51 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>Saints</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Colts 4</v>
+        <v>Saints -11</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>4</v>
+        <v>-11</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
       <c r="D14">
+        <v>-5.5</v>
+      </c>
+      <c r="E14">
         <v>-7</v>
-      </c>
-      <c r="E14">
-        <v>-9.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="b">
         <f t="shared" si="4"/>
@@ -3594,49 +3595,49 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>Vikings</v>
+        <v>49ers</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>Cowboys</v>
+        <v>49ers</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Cowboys 2.5</v>
+        <v>49ers 1.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>Cowboys</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -3646,13 +3647,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>Raiders</v>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Chiefs</v>
+        <v>Buccaneers</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
@@ -3671,71 +3672,169 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>-4.5</v>
+        <v>-8</v>
       </c>
       <c r="E16">
-        <v>-3</v>
+        <v>-7.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
+        <v>7.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
+        <v>8</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
+        <v>Packers</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>Rams</v>
+        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Buccaneers -1.5</v>
+        <v>Packers -0.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+        <v>Packers</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="8"/>
+        <v>Eagles</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="11"/>
+        <v>Eagles</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
+        <v>Seahawks -3</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
+        <v>-3</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>-10</v>
+      </c>
+      <c r="E18">
+        <v>-2.5</v>
+      </c>
+      <c r="F18">
+        <f>E18*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <f>D18*-1</f>
+        <v>10</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="I18" t="b">
+        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
+        <v>Steelers -7.5</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3746,32 +3845,32 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J13 J15:J19">
+  <conditionalFormatting sqref="J3:J12 J14:J19">
     <cfRule type="cellIs" dxfId="26" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K13 K15:K19">
+  <conditionalFormatting sqref="K3:K12 K14:K19">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O13 O15:O19">
+  <conditionalFormatting sqref="O3:O12 O14:O19">
     <cfRule type="cellIs" dxfId="24" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="23" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K13">
     <cfRule type="cellIs" dxfId="22" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="O13">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -3781,24 +3880,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A6FAFB-C442-4C7F-AE94-F3B7E9347D67}">
-  <dimension ref="B1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A3E5F-37EF-4B0A-8740-C47566194EB6}">
+  <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.26953125" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3821,7 +3920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3862,61 +3961,61 @@
         <v>38</v>
       </c>
       <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>252</v>
+        <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
+        <v>56</v>
       </c>
       <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>252</v>
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3*-1</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="str">
         <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
+        <v>Cardinals</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
+        <v>Cardinals</v>
+      </c>
+      <c r="K3" t="b">
         <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>49ers</v>
+        <v>0</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Packers 7</v>
+        <v>Cardinals 2.5</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
@@ -3924,43 +4023,43 @@
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>49ers</v>
+        <v>Cardinals</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
       </c>
       <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
-        <v>126</v>
+        <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
+        <v>461.99999999999994</v>
       </c>
       <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>126</v>
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="E4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="b">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
@@ -3980,11 +4079,11 @@
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Seahawks -1.5</v>
+        <v>Browns -0.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -3998,50 +4097,50 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>-10</v>
+        <v>-1.5</v>
       </c>
       <c r="E5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F16" si="3">E5*-1</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H5" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H5" t="b">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>Chiefs</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>Chiefs</v>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M5" t="str" cm="1">
+        <v>Football Team -1.5</v>
+      </c>
+      <c r="M5" t="e" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>No MOV</v>
+        <v>#N/A</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
@@ -4049,86 +4148,86 @@
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v>Chiefs</v>
+        <v/>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>10.5</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-10.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="str">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>0</v>
+        <v>Steelers</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Colts</v>
-      </c>
-      <c r="K6" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>Steelers</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Steelers</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Colts 5</v>
+        <v>Steelers -0.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Colts</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>Steelers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
@@ -4138,21 +4237,21 @@
         <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>Broncos</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>Broncos</v>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Falcons -0.5</v>
+        <v>Lions 2</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
@@ -4160,49 +4259,49 @@
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v>Broncos</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E8">
-        <v>-3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="str">
         <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
+        <v>Titans</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
-        <v>Giants</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>Titans</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Titans</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Giants 0.5</v>
+        <v>Titans 0.5</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
@@ -4210,33 +4309,33 @@
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Giants</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+        <v>Titans</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>-3.5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="b">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
@@ -4248,19 +4347,19 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>Jaguars</v>
+        <v>Falcons</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Jaguars</v>
+        <v>Falcons</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Texans -3</v>
+        <v>Falcons 3.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
@@ -4268,53 +4367,53 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v>Jaguars</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
+        <v>Falcons</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>-6.5</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>-2</v>
       </c>
       <c r="H10" t="b">
         <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" t="b">
         <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>Bears</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Bears</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>Bears</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M10" t="str" cm="1">
+        <v>Patriots 4.5</v>
+      </c>
+      <c r="M10" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>No MOV</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
@@ -4322,33 +4421,33 @@
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Bears</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>-3.5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="H11" t="b">
+        <v>-4</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Broncos</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="5"/>
@@ -4360,72 +4459,72 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>Lions</v>
+        <v>Broncos</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Vikings -1</v>
+        <v>Dolphins 5</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v>MAYBE</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
+        <v>Broncos</v>
       </c>
       <c r="W11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E12">
-        <v>-2.5</v>
+        <v>-8.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H12" t="b">
+        <v>10</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Chargers</v>
       </c>
       <c r="I12" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>Chargers</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>Chargers</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Raiders 3.5</v>
+        <v>Chargers -1.5</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
@@ -4433,56 +4532,56 @@
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
+        <v>Chargers</v>
       </c>
       <c r="W12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>-6</v>
+        <v>-1.5</v>
       </c>
       <c r="E13">
-        <v>-6</v>
+        <v>2.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-2.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" t="b">
         <f t="shared" si="5"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M13" t="str" cm="1">
+        <v>Colts 4</v>
+      </c>
+      <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>No MOV</v>
+        <v>4</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
@@ -4490,137 +4589,137 @@
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>Dolphins</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D14">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="E14">
-        <v>13.5</v>
+        <v>-9.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>-13.5</v>
+        <v>9.5</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="H14" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" t="b">
         <f t="shared" si="5"/>
-        <v>Steelers</v>
+        <v>0</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>Steelers</v>
+        <v>Vikings</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>Steelers</v>
+        <v>Cowboys</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Steelers -0.5</v>
+        <v>Cowboys 2.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>Steelers</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
+        <v>Cowboys</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>-3.5</v>
+        <v>7.5</v>
       </c>
       <c r="E15">
-        <v>-4.5</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>-7</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" t="b">
         <f t="shared" si="5"/>
-        <v>Saints</v>
+        <v>0</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
-        <v>Saints</v>
+        <v>Raiders</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Saints</v>
+        <v>Chiefs</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Saints 1</v>
+        <v>Chiefs -0.5</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Saints</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>-4.5</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="b">
         <f t="shared" si="4"/>
@@ -4630,21 +4729,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>Jets</v>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>Patriots</v>
+        <v>Rams</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Patriots -3</v>
+        <v>Buccaneers -1.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -4654,6 +4753,21 @@
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
         <v/>
       </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4661,18 +4775,33 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="notEqual">
+  <conditionalFormatting sqref="J3:J13 J15:J19">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="K3:K13 K15:K19">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="O3:O13 O15:O19">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4681,24 +4810,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A6FAFB-C442-4C7F-AE94-F3B7E9347D67}">
   <dimension ref="B1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.26953125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.26953125" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +4850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4763,36 +4892,36 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>-2.5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3*-1</f>
-        <v>2.5</v>
+        <v>-7</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
@@ -4806,25 +4935,25 @@
         <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K3" t="b">
+      <c r="K3" t="str">
         <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
+        <v>49ers</v>
       </c>
       <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M3" t="str" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>No MOV</v>
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>Packers 7</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>7</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v/>
+        <v>49ers</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -4835,32 +4964,32 @@
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>-7</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>7</v>
+        <v>-1.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="H4" t="b">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
@@ -4870,21 +4999,21 @@
         <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Vikings</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>Vikings</v>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Vikings 1</v>
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>Seahawks -1.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -4892,51 +5021,51 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Vikings</v>
+        <v/>
       </c>
       <c r="W4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F16" si="3">E5*-1</f>
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
+        <v>10</v>
+      </c>
+      <c r="H5" t="str">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>0</v>
+        <v>Chiefs</v>
       </c>
       <c r="I5" t="b">
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiefs</v>
       </c>
       <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
         <v>No MOV</v>
       </c>
       <c r="M5" t="str" cm="1">
@@ -4949,86 +5078,86 @@
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
+        <v>Chiefs</v>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" t="b">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Steelers</v>
+        <v>0</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Steelers</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>Steelers</v>
+        <v>Colts</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Steelers 2</v>
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>Colts 5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Steelers</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Colts</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
@@ -5038,21 +5167,21 @@
         <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>Broncos</v>
       </c>
       <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Raiders 2</v>
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Falcons -0.5</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
@@ -5060,29 +5189,29 @@
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Broncos</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="E8">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
@@ -5094,49 +5223,49 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
-        <v>Bengals</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
+        <v>Giants</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans -3.5</v>
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Giants 0.5</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>-3.5</v>
+        <v>0.5</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Bengals</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Giants</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>-4.5</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>-7</v>
       </c>
       <c r="H9" t="b">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
@@ -5146,75 +5275,75 @@
         <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaguars</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Patriots</v>
+        <v>Jaguars</v>
       </c>
       <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Bills -1.5</v>
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Texans -3</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-1.5</v>
+        <v>-3</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Jaguars</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-6.5</v>
       </c>
       <c r="E10">
-        <v>-21.5</v>
+        <v>-6.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>21.5</v>
+        <v>6.5</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H10" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="H10" t="b">
         <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
-        <v>Chiefs</v>
-      </c>
-      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
+        <v>Bears</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v>Chiefs</v>
+        <v>Bears</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
-        <v>Chiefs</v>
+        <v>Bears</v>
       </c>
       <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Jets 1.5</v>
-      </c>
-      <c r="M10" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M10" t="str" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>1.5</v>
+        <v>No MOV</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
@@ -5222,29 +5351,29 @@
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Chiefs</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Bears</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E11">
-        <v>3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>-3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="b">
         <f t="shared" si="4"/>
@@ -5254,54 +5383,54 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>Dolphins</v>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>Dolphins</v>
+        <v>Lions</v>
       </c>
       <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>Vikings -1</v>
+      </c>
+      <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>No MOV</v>
+        <v>-1</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v>Dolphins</v>
+        <v/>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
         <v>-1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-3</v>
       </c>
       <c r="H12" t="b">
         <f t="shared" si="4"/>
@@ -5320,12 +5449,12 @@
         <v>0</v>
       </c>
       <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Chargers -2</v>
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Raiders 3.5</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>-2</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
@@ -5335,16 +5464,19 @@
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E13">
         <v>-6</v>
@@ -5355,7 +5487,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H13" t="b">
         <f t="shared" si="4"/>
@@ -5363,1082 +5495,185 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="5"/>
-        <v>49ers</v>
+        <v>Dolphins</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>49ers</v>
-      </c>
-      <c r="K13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>Dolphins</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
       </c>
       <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>49ers 3</v>
-      </c>
-      <c r="M13" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M13" t="str" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>3</v>
+        <v>No MOV</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Dolphins</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>2.5</v>
+        <v>13.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>-2.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-4.5</v>
-      </c>
-      <c r="H14" t="str">
+        <v>-14</v>
+      </c>
+      <c r="H14" t="b">
         <f t="shared" si="4"/>
-        <v>Bears</v>
-      </c>
-      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>Steelers</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>Bears</v>
+        <v>Steelers</v>
       </c>
       <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Saints -2</v>
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>Steelers -0.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Steelers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>-10.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E15">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="H15" t="str">
+      <c r="H15" t="b">
         <f t="shared" si="4"/>
-        <v>Eagles</v>
-      </c>
-      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>Saints</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
-        <v>Cowboys</v>
+        <v>Saints</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Eagles</v>
+        <v>Saints</v>
       </c>
       <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Eagles -7</v>
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Saints 1</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+        <v>Saints</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>-8.5</v>
+        <v>-7</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="H16" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" t="b">
         <f t="shared" si="5"/>
-        <v>Buccaneers</v>
+        <v>0</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
-        <v>Buccaneers</v>
+        <v>Jets</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>Buccaneers</v>
+        <v>Patriots</v>
       </c>
       <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Buccaneers -4.5</v>
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Patriots -3</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-4.5</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v>Buccaneers</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
-  <dimension ref="B1:W16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" customWidth="1"/>
-    <col min="8" max="9" width="9.26953125" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="3.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-6</v>
-      </c>
-      <c r="E3">
-        <v>-5</v>
-      </c>
-      <c r="F3">
-        <f>D3*-1</f>
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <f>E3*-1</f>
-        <v>5</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(E3&lt;0,IF(E3&lt;-7.5,C3,FALSE),IF(AND(E3&gt;3.5,E3&lt;7),C3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>Giants</v>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>Giants</v>
-      </c>
-      <c r="K3" t="str">
-        <f>IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>Giants</v>
-      </c>
-      <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)),D3&gt;0,IF(D3&lt;E3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)))</f>
-        <v>Giants 1</v>
-      </c>
-      <c r="M3" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,(E3-D3),(E3-D3)),D3&gt;0,IF(D3&lt;E3,(D3-E3),(D3-E3)))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>Giants</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
-        <v>56</v>
-      </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>-7</v>
-      </c>
-      <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4">
-        <f>D4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <f>E4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="H4" t="b">
-        <f>IF(E4&lt;0,IF(E4&lt;-7.5,B4,FALSE),IF(AND(E4&gt;3.5,E4&lt;7),B4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J16" si="0">IF(D4&lt;0,IF(D4&lt;=-7.5,C4,IF(AND(ABS(D4)&gt;=3.5,ABS(D4)&lt;=7),B4,FALSE)),IF(AND(D4&gt;=3.5,D4&lt;=7),C4,IF(D4&gt;=7.5,B4,FALSE)))</f>
-        <v>Panthers</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K16" si="1">IF(E4&lt;0,IF(E4&lt;=-7.5,C4,IF(AND(ABS(E4)&gt;=3.5,ABS(E4)&lt;=7),B4,FALSE)),IF(AND(E4&gt;=3.5,E4&lt;=7),C4,IF(E4&gt;=7.5,B4,FALSE)))</f>
-        <v>Panthers</v>
-      </c>
-      <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)),D4&gt;0,IF(D4&lt;E4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M4" t="str" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,(E4-D4),(E4-D4)),D4&gt;0,IF(D4&lt;E4,(D4-E4),(D4-E4)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Panthers</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F16" si="2">D5*-1</f>
         <v>-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G16" si="3">E5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(E5&lt;0,IF(E5&lt;-7.5,C5,FALSE),IF(AND(E5&gt;3.5,E5&lt;7),C5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)),D5&gt;0,IF(D5&lt;E5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M5" t="str" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,(E5-D5),(E5-D5)),D5&gt;0,IF(D5&lt;E5,(D5-E5),(D5-E5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(E6&lt;0,IF(E6&lt;-7.5,C6,FALSE),IF(AND(E6&gt;3.5,E6&lt;7),C6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>Bengals</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>Bengals</v>
-      </c>
-      <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)),D6&gt;0,IF(D6&lt;E6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)))</f>
-        <v>Bengals 0.5</v>
-      </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,(E6-D6),(E6-D6)),D6&gt;0,IF(D6&lt;E6,(D6-E6),(D6-E6)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Bengals</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(E7&lt;0,IF(E7&lt;-7.5,C7,FALSE),IF(AND(E7&gt;3.5,E7&lt;7),C7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)),D7&gt;0,IF(D7&lt;E7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M7" t="str" cm="1">
-        <f t="array" ref="M7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,(E7-D7),(E7-D7)),D7&gt;0,IF(D7&lt;E7,(D7-E7),(D7-E7)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <f>IF(E8&lt;0,IF(E8&lt;-7.5,C8,FALSE),IF(AND(E8&gt;3.5,E8&lt;7),C8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)),D8&gt;0,IF(D8&lt;E8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M8" t="str" cm="1">
-        <f t="array" ref="M8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,(E8-D8),(E8-D8)),D8&gt;0,IF(D8&lt;E8,(D8-E8),(D8-E8)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <f>IF(E9&lt;0,IF(E9&lt;-7.5,#REF!,FALSE),IF(AND(E9&gt;3.5,E9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)),D9&gt;0,IF(D9&lt;E9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)))</f>
-        <v>Football Team 4</v>
-      </c>
-      <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,(E9-D9),(E9-D9)),D9&gt;0,IF(D9&lt;E9,(D9-E9),(D9-E9)))</f>
-        <v>4</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="H10" t="b">
-        <f t="shared" ref="H10:H16" si="4">IF(E10&lt;0,IF(E10&lt;-7.5,C10,FALSE),IF(AND(E10&gt;3.5,E10&lt;7),C10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>Bills</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>Bills</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>Bills</v>
-      </c>
-      <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)),D10&gt;0,IF(D10&lt;E10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M10" t="str" cm="1">
-        <f t="array" ref="M10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,(E10-D10),(E10-D10)),D10&gt;0,IF(D10&lt;E10,(D10-E10),(D10-E10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Bills</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-7.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>Jaguars</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>Chargers</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)),D11&gt;0,IF(D11&lt;E11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)))</f>
-        <v>Chargers -0.5</v>
-      </c>
-      <c r="M11" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,(E11-D11),(E11-D11)),D11&gt;0,IF(D11&lt;E11,(D11-E11),(D11-E11)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v>Raiders</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>Raiders</v>
-      </c>
-      <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)),D12&gt;0,IF(D12&lt;E12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)))</f>
-        <v>Buccaneers -2</v>
-      </c>
-      <c r="M12" cm="1">
-        <f t="array" ref="M12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,(E12-D12),(E12-D12)),D12&gt;0,IF(D12&lt;E12,(D12-E12),(D12-E12)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>9.5</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-9.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>-7</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>Broncos</v>
-      </c>
-      <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)),D13&gt;0,IF(D13&lt;E13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)))</f>
-        <v>Broncos 2.5</v>
-      </c>
-      <c r="M13" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,(E13-D13),(E13-D13)),D13&gt;0,IF(D13&lt;E13,(D13-E13),(D13-E13)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>Broncos</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>-5.5</v>
-      </c>
-      <c r="E14">
-        <v>-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H14" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="5"/>
-        <v>49ers</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>49ers</v>
-      </c>
-      <c r="K14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)),D14&gt;0,IF(D14&lt;E14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)))</f>
-        <v>49ers 2.5</v>
-      </c>
-      <c r="M14" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,(E14-D14),(E14-D14)),D14&gt;0,IF(D14&lt;E14,(D14-E14),(D14-E14)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>-7</v>
-      </c>
-      <c r="E15">
-        <v>-6</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H15" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>Bears</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>Bears</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)),D15&gt;0,IF(D15&lt;E15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)))</f>
-        <v>Bears 1</v>
-      </c>
-      <c r="M15" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,(E15-D15),(E15-D15)),D15&gt;0,IF(D15&lt;E15,(D15-E15),(D15-E15)))</f>
-        <v>1</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Bears</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>Cardinals</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)),D16&gt;0,IF(D16&lt;E16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)))</f>
-        <v>Seahawks -0.5</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,(E16-D16),(E16-D16)),D16&gt;0,IF(D16&lt;E16,(D16-E16),(D16-E16)))</f>
-        <v>-0.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -6471,11 +5706,1804 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
+  <dimension ref="B1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>-2.5</v>
+      </c>
+      <c r="E3">
+        <v>-2.5</v>
+      </c>
+      <c r="F3">
+        <f>E3*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <f>E4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Vikings</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Vikings</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>Vikings 1</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v>Vikings</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Steelers</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>Steelers 2</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
+        <v>2</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Steelers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Raiders 2</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
+        <v>2</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Bengals</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Titans -3.5</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
+        <v>-3.5</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>-4.5</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>Patriots</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Bills -1.5</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>-21.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <v>Chiefs</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>Jets 1.5</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Chiefs</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v>Dolphins</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Chargers -2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
+      </c>
+      <c r="E13">
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>49ers</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>49ers</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>49ers 3</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
+        <v>3</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>Bears</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>Bears</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>Saints -2</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>-10.5</v>
+      </c>
+      <c r="E15">
+        <v>-3.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>Eagles</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cowboys</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>Eagles</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Eagles -7</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
+        <v>-7</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>8.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="5"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Buccaneers -4.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
+        <v>-4.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v>Buccaneers</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
+  <dimension ref="B1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="9" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="3.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <f>D3*-1</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f>E3*-1</f>
+        <v>5</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(E3&lt;0,IF(E3&lt;-7.5,C3,FALSE),IF(AND(E3&gt;3.5,E3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>Giants</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>Giants</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>Giants</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)),D3&gt;0,IF(D3&lt;E3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)))</f>
+        <v>Giants 1</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,(E3-D3),(E3-D3)),D3&gt;0,IF(D3&lt;E3,(D3-E3),(D3-E3)))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v>Giants</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
+        <v>56</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <f>D4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>E4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(E4&lt;0,IF(E4&lt;-7.5,B4,FALSE),IF(AND(E4&gt;3.5,E4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J16" si="0">IF(D4&lt;0,IF(D4&lt;=-7.5,C4,IF(AND(ABS(D4)&gt;=3.5,ABS(D4)&lt;=7),B4,FALSE)),IF(AND(D4&gt;=3.5,D4&lt;=7),C4,IF(D4&gt;=7.5,B4,FALSE)))</f>
+        <v>Panthers</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K16" si="1">IF(E4&lt;0,IF(E4&lt;=-7.5,C4,IF(AND(ABS(E4)&gt;=3.5,ABS(E4)&lt;=7),B4,FALSE)),IF(AND(E4&gt;=3.5,E4&lt;=7),C4,IF(E4&gt;=7.5,B4,FALSE)))</f>
+        <v>Panthers</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)),D4&gt;0,IF(D4&lt;E4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,(E4-D4),(E4-D4)),D4&gt;0,IF(D4&lt;E4,(D4-E4),(D4-E4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v>Panthers</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="2">D5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G16" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(E5&lt;0,IF(E5&lt;-7.5,C5,FALSE),IF(AND(E5&gt;3.5,E5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)),D5&gt;0,IF(D5&lt;E5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,(E5-D5),(E5-D5)),D5&gt;0,IF(D5&lt;E5,(D5-E5),(D5-E5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(E6&lt;0,IF(E6&lt;-7.5,C6,FALSE),IF(AND(E6&gt;3.5,E6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bengals</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)),D6&gt;0,IF(D6&lt;E6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)))</f>
+        <v>Bengals 0.5</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,(E6-D6),(E6-D6)),D6&gt;0,IF(D6&lt;E6,(D6-E6),(D6-E6)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(E7&lt;0,IF(E7&lt;-7.5,C7,FALSE),IF(AND(E7&gt;3.5,E7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)),D7&gt;0,IF(D7&lt;E7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,(E7-D7),(E7-D7)),D7&gt;0,IF(D7&lt;E7,(D7-E7),(D7-E7)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(E8&lt;0,IF(E8&lt;-7.5,C8,FALSE),IF(AND(E8&gt;3.5,E8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)),D8&gt;0,IF(D8&lt;E8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,(E8-D8),(E8-D8)),D8&gt;0,IF(D8&lt;E8,(D8-E8),(D8-E8)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(E9&lt;0,IF(E9&lt;-7.5,#REF!,FALSE),IF(AND(E9&gt;3.5,E9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)),D9&gt;0,IF(D9&lt;E9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)))</f>
+        <v>Football Team 4</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,(E9-D9),(E9-D9)),D9&gt;0,IF(D9&lt;E9,(D9-E9),(D9-E9)))</f>
+        <v>4</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" ref="H10:H16" si="4">IF(E10&lt;0,IF(E10&lt;-7.5,C10,FALSE),IF(AND(E10&gt;3.5,E10&lt;7),C10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>Bills</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bills</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>Bills</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)),D10&gt;0,IF(D10&lt;E10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,(E10-D10),(E10-D10)),D10&gt;0,IF(D10&lt;E10,(D10-E10),(D10-E10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Bills</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-7.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaguars</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>Chargers</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)),D11&gt;0,IF(D11&lt;E11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)))</f>
+        <v>Chargers -0.5</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,(E11-D11),(E11-D11)),D11&gt;0,IF(D11&lt;E11,(D11-E11),(D11-E11)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>Raiders</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>Raiders</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)),D12&gt;0,IF(D12&lt;E12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)))</f>
+        <v>Buccaneers -2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,(E12-D12),(E12-D12)),D12&gt;0,IF(D12&lt;E12,(D12-E12),(D12-E12)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>9.5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)),D13&gt;0,IF(D13&lt;E13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)))</f>
+        <v>Broncos 2.5</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,(E13-D13),(E13-D13)),D13&gt;0,IF(D13&lt;E13,(D13-E13),(D13-E13)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v>Broncos</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>-5.5</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v>49ers</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>49ers</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)),D14&gt;0,IF(D14&lt;E14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)))</f>
+        <v>49ers 2.5</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,(E14-D14),(E14-D14)),D14&gt;0,IF(D14&lt;E14,(D14-E14),(D14-E14)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>-7</v>
+      </c>
+      <c r="E15">
+        <v>-6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bears</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>Bears</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)),D15&gt;0,IF(D15&lt;E15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)))</f>
+        <v>Bears 1</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,(E15-D15),(E15-D15)),D15&gt;0,IF(D15&lt;E15,(D15-E15),(D15-E15)))</f>
+        <v>1</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v>Bears</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>Cardinals</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)),D16&gt;0,IF(D16&lt;E16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)))</f>
+        <v>Seahawks -0.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,(E16-D16),(E16-D16)),D16&gt;0,IF(D16&lt;E16,(D16-E16),(D16-E16)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E052039D-DD95-4FC1-B4DE-BF271006E0B2}">
   <dimension ref="B1:N21"/>
   <sheetViews>
@@ -6483,16 +7511,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -6506,7 +7534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>2</v>
       </c>
@@ -6529,7 +7557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -6546,7 +7574,7 @@
         <v>0.54999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>10</v>
       </c>
@@ -6569,7 +7597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -6594,7 +7622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>2</v>
       </c>
@@ -6621,7 +7649,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -6641,7 +7669,7 @@
         <v>0.38596491228070168</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -6667,7 +7695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
         <v>58</v>
       </c>
@@ -6678,7 +7706,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
         <v>59</v>
       </c>
@@ -6691,7 +7719,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J11">
         <f>J9*J10</f>
         <v>0.32432432432432434</v>
@@ -6709,7 +7737,7 @@
         <v>-1.027027027027027</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>54</v>
       </c>
@@ -6717,7 +7745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +7756,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>59</v>
       </c>
@@ -6741,7 +7769,7 @@
         <v>0.35135135135135132</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J16">
         <f>J14*J15</f>
         <v>0.64864864864864868</v>
@@ -6759,7 +7787,7 @@
         <v>-5.4054054054053946E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>54</v>
       </c>
@@ -6767,7 +7795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>58</v>
       </c>
@@ -6778,7 +7806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>59</v>
       </c>
@@ -6791,7 +7819,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
       <c r="J21">
         <f>J19*J20</f>
         <v>0.94444444444444442</v>

--- a/data/odds calc.xlsx
+++ b/data/odds calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\football\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D913F-E747-4BF3-AEFD-177F0E7792FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6050C3F-7B66-425C-A5DD-5DEFB0351AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="19212" windowHeight="12168" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
+    <workbookView xWindow="7990" yWindow="6220" windowWidth="24740" windowHeight="13830" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 14" sheetId="8" r:id="rId1"/>
@@ -854,20 +854,20 @@
   <dimension ref="B1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A7" activeCellId="4" sqref="A15:XFD15 A12:XFD12 A9:XFD9 A16:XFD16 A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="21" max="22" width="2.5546875" customWidth="1"/>
+    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -932,17 +932,17 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="S3">
         <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="H5" t="b">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
@@ -1100,21 +1100,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Cowboys -0.5</v>
-      </c>
-      <c r="M5" cm="1">
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>-0.5</v>
+        <v>No MOV</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
@@ -1124,7 +1124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>-6.5</v>
+        <v>-7</v>
       </c>
       <c r="E6">
         <v>-6</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Buccaneers -0.5</v>
+        <v>Buccaneers -1</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -1178,7 +1178,7 @@
         <v>Vikings</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>Dolphins</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="E10">
         <v>-4</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="b">
         <f t="shared" ref="H10:H17" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
@@ -1379,11 +1379,11 @@
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Broncos 0.5</v>
-      </c>
-      <c r="M10" cm="1">
+        <v>No MOV</v>
+      </c>
+      <c r="M10" t="str" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>0.5</v>
+        <v>No MOV</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
@@ -1394,7 +1394,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>-13.5</v>
+        <v>-16.5</v>
       </c>
       <c r="E12">
         <v>-14.5</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="4"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Jets 1</v>
+        <v>Seahawks -2</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
@@ -1508,7 +1508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>Football Team</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="b">
         <f t="shared" si="4"/>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Falcons 3.5</v>
+        <v>Chargers -0.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
@@ -1616,7 +1616,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>6.5</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -1651,26 +1651,26 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Eagles</v>
+        <v>Saints</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Saints -0.5</v>
+        <v>Saints -1.5</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>IGNORE</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Eagles</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>Packers</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="E17">
         <v>2.5</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="b">
         <f t="shared" si="4"/>
@@ -1763,11 +1763,11 @@
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Bills 4.5</v>
+        <v>Bills 5</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
@@ -1778,7 +1778,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>2.5</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="7">D18*-1</f>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="H18" t="b">
         <f t="shared" ref="H18" si="8">IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="L18" t="str" cm="1">
         <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M18" t="str" cm="1">
+        <v>Ravens -0.5</v>
+      </c>
+      <c r="M18" cm="1">
         <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
-        <v>No MOV</v>
+        <v>-0.5</v>
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
@@ -1832,981 +1832,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J12 J14:J19">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K12 K14:K19">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O12 O14:O19">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96BF1A-B966-4D0A-8107-F9A995F884F7}">
-  <dimension ref="B1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="21" max="22" width="2.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>461.99999999999994</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>-3</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <f>E3*-1</f>
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="0">D3*-1</f>
-        <v>3</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>Lions</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J17" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>Lions</v>
-      </c>
-      <c r="K3" t="b">
-        <f t="shared" ref="K3:K17" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Lions 1</v>
-      </c>
-      <c r="M3" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>Lions</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
-        <v>461.99999999999994</v>
-      </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>252</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>-10</v>
-      </c>
-      <c r="E4">
-        <v>-10.5</v>
-      </c>
-      <c r="F4">
-        <f>E4*-1</f>
-        <v>10.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H4" t="str">
-        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>Bengals</v>
-      </c>
-      <c r="I4" t="b">
-        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Bengals 0.5</v>
-      </c>
-      <c r="M4" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Dolphins</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3.5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F17" si="3">E5*-1</f>
-        <v>-3.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>Falcons</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Falcons 0.5</v>
-      </c>
-      <c r="M5" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v>Falcons</v>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>7.5</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>-8</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-7.5</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Raiders</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>Raiders</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>Raiders</v>
-      </c>
-      <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Jets 0.5</v>
-      </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Raiders</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3.5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>Texans</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Texans 0.5</v>
-      </c>
-      <c r="M7" cm="1">
-        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v>Texans</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8">
-        <v>-3.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H8" t="b">
-        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>Browns</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>Browns</v>
-      </c>
-      <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans -0.5</v>
-      </c>
-      <c r="M8" cm="1">
-        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Browns</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
-      <c r="E9">
-        <v>-9.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H9" t="e">
-        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" t="b">
-        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>Vikings</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>Vikings</v>
-      </c>
-      <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Vikings -0.5</v>
-      </c>
-      <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v>Vikings</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>2.5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="H10" t="b">
-        <f t="shared" ref="H10:H17" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <f t="shared" ref="I10:I17" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Rams 2.5</v>
-      </c>
-      <c r="M10" t="e" cm="1">
-        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>-10.5</v>
-      </c>
-      <c r="E11">
-        <v>-7.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="4"/>
-        <v>Seahawks</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>Seahawks</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>Seahawks</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Seahawks -3</v>
-      </c>
-      <c r="M11" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>-3</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v>Seahawks</v>
-      </c>
-      <c r="W11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>-1.5</v>
-      </c>
-      <c r="E12">
-        <v>-2.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Patriots 1</v>
-      </c>
-      <c r="M12" cm="1">
-        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>1</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="W12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>-8</v>
-      </c>
-      <c r="E13">
-        <v>-7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="4"/>
-        <v>Packers</v>
-      </c>
-      <c r="I13" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>Eagles</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>Packers</v>
-      </c>
-      <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Packers -1</v>
-      </c>
-      <c r="M13" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>-1</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>-13.5</v>
-      </c>
-      <c r="E14">
-        <v>-13</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="I14" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Chiefs -0.5</v>
-      </c>
-      <c r="M14" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>Chiefs</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>-7</v>
-      </c>
-      <c r="E15">
-        <v>-11</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H15" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>Steelers</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>Football Team</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Football Team 4</v>
-      </c>
-      <c r="M15" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>4</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Football Team</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16">
-        <v>2.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>-2.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>49ers 3.5</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>-8.5</v>
-      </c>
-      <c r="E17">
-        <v>-7.5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="4"/>
-        <v>Ravens</v>
-      </c>
-      <c r="I17" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>Ravens</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>Ravens</v>
-      </c>
-      <c r="L17" t="str" cm="1">
-        <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Ravens -1</v>
-      </c>
-      <c r="M17" cm="1">
-        <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>-1</v>
-      </c>
-      <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O17" t="str" cm="1">
-        <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
-        <v>Ravens</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2851,25 +1877,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96BF1A-B966-4D0A-8107-F9A995F884F7}">
   <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="21" max="22" width="2.5546875" customWidth="1"/>
+    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +1918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2934,68 +1960,68 @@
       </c>
       <c r="S2">
         <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
+        <v>461.99999999999994</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>-4</v>
       </c>
       <c r="F3">
         <f>E3*-1</f>
-        <v>-2.5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
-        <v>-3</v>
+        <f t="shared" ref="G3:G17" si="0">D3*-1</f>
+        <v>3</v>
       </c>
       <c r="H3" t="b">
         <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="str">
         <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
+        <v>Lions</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J17" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>Lions</v>
       </c>
       <c r="K3" t="b">
-        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <f t="shared" ref="K3:K17" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>Texans -0.5</v>
+        <v>Lions 1</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
+        <v>MAYBE</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v/>
+        <v>Lions</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -3006,56 +2032,56 @@
       </c>
       <c r="T3" cm="1">
         <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E4">
-        <v>-1.5</v>
+        <v>-10.5</v>
       </c>
       <c r="F4">
         <f>E4*-1</f>
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4" t="b">
+        <v>10</v>
+      </c>
+      <c r="H4" t="str">
         <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>0</v>
+        <v>Bengals</v>
       </c>
       <c r="I4" t="b">
         <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Cowboys -1.5</v>
+        <v>Bengals 0.5</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
@@ -3063,56 +2089,56 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v/>
+        <v>Dolphins</v>
       </c>
       <c r="W4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="3">E5*-1</f>
+        <v>-3.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="H5" t="str">
+      <c r="H5" t="b">
         <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>Bengals</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>Falcons</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>Giants 9</v>
+        <v>Falcons 0.5</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
@@ -3120,32 +2146,32 @@
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v>Bengals</v>
+        <v>Falcons</v>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>-4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="H6" t="b">
         <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
@@ -3153,23 +2179,23 @@
       </c>
       <c r="I6" t="str">
         <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>Chargers</v>
+        <v>Raiders</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Chargers 1.5</v>
+        <v>Jets 0.5</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
@@ -3177,41 +2203,41 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Chargers</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+        <v>Raiders</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>3.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>-3.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H7" t="b">
         <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" t="b">
         <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>Titans</v>
+        <v>0</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>Titans</v>
+        <v>Texans</v>
       </c>
       <c r="K7" t="b">
         <f t="shared" si="2"/>
@@ -3219,11 +2245,11 @@
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Titans 1</v>
+        <v>Texans 0.5</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
@@ -3231,29 +2257,29 @@
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v>Titans</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+        <v>Texans</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="b">
         <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
@@ -3263,21 +2289,21 @@
         <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Browns</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Browns</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Raiders 3</v>
-      </c>
-      <c r="M8" t="e" cm="1">
+        <v>Titans -0.5</v>
+      </c>
+      <c r="M8" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>#N/A</v>
+        <v>-0.5</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
@@ -3285,33 +2311,33 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+        <v>Browns</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>7.5</v>
+        <v>-10</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>-9.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
-      </c>
-      <c r="H9" t="b">
+        <v>10</v>
+      </c>
+      <c r="H9" t="e">
         <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="I9" t="b">
         <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
@@ -3319,127 +2345,127 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>Jaguars</v>
+        <v>Vikings</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>Browns</v>
+        <v>Vikings</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Browns -1.5</v>
+        <v>Vikings -0.5</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+        <v>Vikings</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <f t="shared" ref="H10:H17" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Jets</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
+        <f t="shared" ref="I10:I17" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Dolphins -0.5</v>
-      </c>
-      <c r="M10" cm="1">
+        <v>Rams 2.5</v>
+      </c>
+      <c r="M10" t="e" cm="1">
         <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>-0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-10.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H11" t="b">
+        <v>10.5</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Seahawks</v>
       </c>
       <c r="I11" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>Seahawks</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>Seahawks</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>Cardinals 1</v>
-      </c>
-      <c r="M11" t="e" cm="1">
+        <v>Seahawks -3</v>
+      </c>
+      <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>#N/A</v>
+        <v>-3</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
@@ -3447,32 +2473,32 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
+        <v>Seahawks</v>
       </c>
       <c r="W11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="E12">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="b">
         <f t="shared" si="4"/>
@@ -3482,9 +2508,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>Panthers</v>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <f t="shared" si="2"/>
@@ -3492,48 +2518,48 @@
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Panthers 0.5</v>
+        <v>Patriots 1</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
+        <v/>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v>Panthers</v>
+        <v/>
       </c>
       <c r="W12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>16.5</v>
+        <v>-8</v>
       </c>
       <c r="E13">
-        <v>5.5</v>
+        <v>-7</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>-5.5</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-16.5</v>
-      </c>
-      <c r="H13" t="b">
+        <v>8</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Packers</v>
       </c>
       <c r="I13" t="b">
         <f t="shared" si="5"/>
@@ -3541,19 +2567,19 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>Broncos</v>
+        <v>Eagles</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>Saints</v>
+        <v>Packers</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>Saints -11</v>
+        <v>Packers -1</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
@@ -3564,30 +2590,30 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>-5.5</v>
+        <v>-13.5</v>
       </c>
       <c r="E14">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="H14" t="b">
+        <v>13.5</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Chiefs</v>
       </c>
       <c r="I14" t="b">
         <f t="shared" si="5"/>
@@ -3595,19 +2621,19 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>49ers</v>
+        <v>Chiefs</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>49ers 1.5</v>
+        <v>Chiefs -0.5</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
@@ -3615,29 +2641,29 @@
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+        <v>Chiefs</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>3.5</v>
+        <v>-7</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="4"/>
@@ -3647,75 +2673,75 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>Buccaneers</v>
+        <v>Football Team</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Chiefs -0.5</v>
+        <v>Football Team 4</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v>MAYBE</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+        <v>Football Team</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>-7.5</v>
+        <v>2.5</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
-        <v>8</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
-        <v>Packers</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
-        <v>Packers</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
-        <v>Packers</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Packers -0.5</v>
+        <v>49ers 3.5</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -3723,118 +2749,64 @@
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v>Packers</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>-8.5</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
-        <v>-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
-        <v>-6</v>
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="8"/>
-        <v>Eagles</v>
+        <f t="shared" si="4"/>
+        <v>Ravens</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>Ravens</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="11"/>
-        <v>Eagles</v>
+        <f t="shared" si="2"/>
+        <v>Ravens</v>
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
-        <v>Seahawks -3</v>
+        <v>Ravens -1</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
+        <v/>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>-10</v>
-      </c>
-      <c r="E18">
-        <v>-2.5</v>
-      </c>
-      <c r="F18">
-        <f>E18*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="G18">
-        <f>D18*-1</f>
-        <v>10</v>
-      </c>
-      <c r="H18" t="str">
-        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="I18" t="b">
-        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="str">
-        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="L18" t="str" cm="1">
-        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
-        <v>Steelers -7.5</v>
-      </c>
-      <c r="M18" cm="1">
-        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
-        <v>-7.5</v>
-      </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O18" t="str" cm="1">
-        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+        <v>Ravens</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3879,6 +2851,1034 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
+  <dimension ref="B1:W19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
+        <v>252</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <f>E3*-1</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="0">D3*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J15" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K15" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>Texans -0.5</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
+        <v>461.99999999999994</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>-1.5</v>
+      </c>
+      <c r="F4">
+        <f>E4*-1</f>
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>Cowboys -1.5</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="3">E5*-1</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
+        <v>Bengals</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <v>Giants 9</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
+        <v>9</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>-4.5</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>Chargers</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>Chargers</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Chargers</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>Chargers 1.5</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Chargers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>Titans</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Titans</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Titans 1</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
+        <v>1</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v>Titans</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Raiders 3</v>
+      </c>
+      <c r="M8" t="e" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>7.5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaguars</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>Browns</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Browns -1.5</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>7.5</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" ref="H10:H15" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" ref="I10:I15" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Jets</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>Dolphins -0.5</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>Cardinals 1</v>
+      </c>
+      <c r="M11" t="e" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>-3</v>
+      </c>
+      <c r="E12">
+        <v>-3.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>Panthers</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Panthers 0.5</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v>Panthers</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>16.5</v>
+      </c>
+      <c r="E13">
+        <v>5.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-5.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-16.5</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>Saints</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>Saints -11</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
+        <v>-11</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>-5.5</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>49ers</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>49ers</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>49ers 1.5</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Chiefs -0.5</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>-8</v>
+      </c>
+      <c r="E16">
+        <v>-7.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
+        <v>7.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
+        <v>8</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
+        <v>Packers</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
+        <v>Packers</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Packers -0.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v>Packers</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="8"/>
+        <v>Eagles</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="11"/>
+        <v>Eagles</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
+        <v>Seahawks -3</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
+        <v>-3</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>-10</v>
+      </c>
+      <c r="E18">
+        <v>-2.5</v>
+      </c>
+      <c r="F18">
+        <f>E18*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <f>D18*-1</f>
+        <v>10</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="I18" t="b">
+        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
+        <v>Steelers -7.5</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J12 J14:J19">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K12 K14:K19">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O12 O14:O19">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A3E5F-37EF-4B0A-8740-C47566194EB6}">
   <dimension ref="B1:W19"/>
@@ -3887,17 +3887,17 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="21" max="22" width="2.5546875" customWidth="1"/>
+    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>Falcons</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>Cowboys</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -4754,17 +4754,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4776,32 +4776,32 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J13 J15:J19">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13 K15:K19">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13 O15:O19">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4817,17 +4817,17 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="21" max="22" width="2.5546875" customWidth="1"/>
+    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>Colts</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>Giants</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>Jaguars</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>Bears</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>Dolphins</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>Saints</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5674,1799 +5674,6 @@
       <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
         <v>-3</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
-  <dimension ref="B1:W16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="9" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="21" max="22" width="2.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>-2.5</v>
-      </c>
-      <c r="E3">
-        <v>-2.5</v>
-      </c>
-      <c r="F3">
-        <f>E3*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M3" t="str" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>-6</v>
-      </c>
-      <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4">
-        <f>E4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H4" t="b">
-        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Vikings</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>Vikings</v>
-      </c>
-      <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
-        <v>Vikings 1</v>
-      </c>
-      <c r="M4" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Vikings</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M5" t="str" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>-4</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>Steelers</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>Steelers</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>Steelers</v>
-      </c>
-      <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
-        <v>Steelers 2</v>
-      </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
-        <v>2</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Steelers</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-3</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
-        <v>Raiders 2</v>
-      </c>
-      <c r="M7" cm="1">
-        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
-        <v>2</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>3.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="H8" t="b">
-        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>Bengals</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>Bengals</v>
-      </c>
-      <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
-        <v>Titans -3.5</v>
-      </c>
-      <c r="M8" cm="1">
-        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
-        <v>-3.5</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v>Bengals</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>-4.5</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="H9" t="b">
-        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>Patriots</v>
-      </c>
-      <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
-        <v>Bills -1.5</v>
-      </c>
-      <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
-        <v>-1.5</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>-20</v>
-      </c>
-      <c r="E10">
-        <v>-21.5</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>21.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
-        <v>Chiefs</v>
-      </c>
-      <c r="I10" t="b">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
-        <v>Jets 1.5</v>
-      </c>
-      <c r="M10" cm="1">
-        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Chiefs</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>3.5</v>
-      </c>
-      <c r="E11">
-        <v>3.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>Dolphins</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M11" t="str" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v>Dolphins</v>
-      </c>
-      <c r="W11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
-        <v>Chargers -2</v>
-      </c>
-      <c r="M12" cm="1">
-        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>49ers</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>49ers</v>
-      </c>
-      <c r="K13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
-        <v>49ers 3</v>
-      </c>
-      <c r="M13" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
-        <v>3</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>4.5</v>
-      </c>
-      <c r="E14">
-        <v>2.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>-2.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-4.5</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>Bears</v>
-      </c>
-      <c r="I14" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>Bears</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
-        <v>Saints -2</v>
-      </c>
-      <c r="M14" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>-10.5</v>
-      </c>
-      <c r="E15">
-        <v>-3.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="4"/>
-        <v>Eagles</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>Cowboys</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>Eagles</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
-        <v>Eagles -7</v>
-      </c>
-      <c r="M15" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
-        <v>-7</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>8.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>-8.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="5"/>
-        <v>Buccaneers</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>Buccaneers</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>Buccaneers</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
-        <v>Buccaneers -4.5</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
-        <v>-4.5</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
-        <v>Buccaneers</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
-  <dimension ref="B1:W16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="9" width="9.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="3.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
-        <v>126</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-6</v>
-      </c>
-      <c r="E3">
-        <v>-5</v>
-      </c>
-      <c r="F3">
-        <f>D3*-1</f>
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <f>E3*-1</f>
-        <v>5</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(E3&lt;0,IF(E3&lt;-7.5,C3,FALSE),IF(AND(E3&gt;3.5,E3&lt;7),C3,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
-        <v>Giants</v>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
-        <v>Giants</v>
-      </c>
-      <c r="K3" t="str">
-        <f>IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
-        <v>Giants</v>
-      </c>
-      <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)),D3&gt;0,IF(D3&lt;E3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)))</f>
-        <v>Giants 1</v>
-      </c>
-      <c r="M3" cm="1">
-        <f t="array" ref="M3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,(E3-D3),(E3-D3)),D3&gt;0,IF(D3&lt;E3,(D3-E3),(D3-E3)))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
-        <v>Giants</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
-        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
-        <v>56</v>
-      </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>-7</v>
-      </c>
-      <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4">
-        <f>D4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <f>E4*-1</f>
-        <v>7</v>
-      </c>
-      <c r="H4" t="b">
-        <f>IF(E4&lt;0,IF(E4&lt;-7.5,B4,FALSE),IF(AND(E4&gt;3.5,E4&lt;7),B4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J16" si="0">IF(D4&lt;0,IF(D4&lt;=-7.5,C4,IF(AND(ABS(D4)&gt;=3.5,ABS(D4)&lt;=7),B4,FALSE)),IF(AND(D4&gt;=3.5,D4&lt;=7),C4,IF(D4&gt;=7.5,B4,FALSE)))</f>
-        <v>Panthers</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K16" si="1">IF(E4&lt;0,IF(E4&lt;=-7.5,C4,IF(AND(ABS(E4)&gt;=3.5,ABS(E4)&lt;=7),B4,FALSE)),IF(AND(E4&gt;=3.5,E4&lt;=7),C4,IF(E4&gt;=7.5,B4,FALSE)))</f>
-        <v>Panthers</v>
-      </c>
-      <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)),D4&gt;0,IF(D4&lt;E4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M4" t="str" cm="1">
-        <f t="array" ref="M4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,(E4-D4),(E4-D4)),D4&gt;0,IF(D4&lt;E4,(D4-E4),(D4-E4)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
-        <v>Panthers</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F16" si="2">D5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G16" si="3">E5*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(E5&lt;0,IF(E5&lt;-7.5,C5,FALSE),IF(AND(E5&gt;3.5,E5&lt;7),C5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)),D5&gt;0,IF(D5&lt;E5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M5" t="str" cm="1">
-        <f t="array" ref="M5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,(E5-D5),(E5-D5)),D5&gt;0,IF(D5&lt;E5,(D5-E5),(D5-E5)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(E6&lt;0,IF(E6&lt;-7.5,C6,FALSE),IF(AND(E6&gt;3.5,E6&lt;7),C6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>Bengals</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>Bengals</v>
-      </c>
-      <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)),D6&gt;0,IF(D6&lt;E6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)))</f>
-        <v>Bengals 0.5</v>
-      </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,(E6-D6),(E6-D6)),D6&gt;0,IF(D6&lt;E6,(D6-E6),(D6-E6)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
-        <v>Bengals</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(E7&lt;0,IF(E7&lt;-7.5,C7,FALSE),IF(AND(E7&gt;3.5,E7&lt;7),C7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)),D7&gt;0,IF(D7&lt;E7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M7" t="str" cm="1">
-        <f t="array" ref="M7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,(E7-D7),(E7-D7)),D7&gt;0,IF(D7&lt;E7,(D7-E7),(D7-E7)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <f>IF(E8&lt;0,IF(E8&lt;-7.5,C8,FALSE),IF(AND(E8&gt;3.5,E8&lt;7),C8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)),D8&gt;0,IF(D8&lt;E8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M8" t="str" cm="1">
-        <f t="array" ref="M8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,(E8-D8),(E8-D8)),D8&gt;0,IF(D8&lt;E8,(D8-E8),(D8-E8)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <f>IF(E9&lt;0,IF(E9&lt;-7.5,#REF!,FALSE),IF(AND(E9&gt;3.5,E9&lt;7),#REF!,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)),D9&gt;0,IF(D9&lt;E9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)))</f>
-        <v>Football Team 4</v>
-      </c>
-      <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,(E9-D9),(E9-D9)),D9&gt;0,IF(D9&lt;E9,(D9-E9),(D9-E9)))</f>
-        <v>4</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="H10" t="b">
-        <f t="shared" ref="H10:H16" si="4">IF(E10&lt;0,IF(E10&lt;-7.5,C10,FALSE),IF(AND(E10&gt;3.5,E10&lt;7),C10,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
-        <v>Bills</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>Bills</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>Bills</v>
-      </c>
-      <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)),D10&gt;0,IF(D10&lt;E10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="M10" t="str" cm="1">
-        <f t="array" ref="M10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,(E10-D10),(E10-D10)),D10&gt;0,IF(D10&lt;E10,(D10-E10),(D10-E10)))</f>
-        <v>No MOV</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
-        <v>Bills</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-7.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>Jaguars</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>Chargers</v>
-      </c>
-      <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)),D11&gt;0,IF(D11&lt;E11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)))</f>
-        <v>Chargers -0.5</v>
-      </c>
-      <c r="M11" cm="1">
-        <f t="array" ref="M11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,(E11-D11),(E11-D11)),D11&gt;0,IF(D11&lt;E11,(D11-E11),(D11-E11)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v>Raiders</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>Raiders</v>
-      </c>
-      <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)),D12&gt;0,IF(D12&lt;E12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)))</f>
-        <v>Buccaneers -2</v>
-      </c>
-      <c r="M12" cm="1">
-        <f t="array" ref="M12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,(E12-D12),(E12-D12)),D12&gt;0,IF(D12&lt;E12,(D12-E12),(D12-E12)))</f>
-        <v>-2</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>9.5</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-9.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>-7</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>Chiefs</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>Broncos</v>
-      </c>
-      <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)),D13&gt;0,IF(D13&lt;E13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)))</f>
-        <v>Broncos 2.5</v>
-      </c>
-      <c r="M13" cm="1">
-        <f t="array" ref="M13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,(E13-D13),(E13-D13)),D13&gt;0,IF(D13&lt;E13,(D13-E13),(D13-E13)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
-        <v>Broncos</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>-5.5</v>
-      </c>
-      <c r="E14">
-        <v>-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H14" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="5"/>
-        <v>49ers</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>49ers</v>
-      </c>
-      <c r="K14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)),D14&gt;0,IF(D14&lt;E14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)))</f>
-        <v>49ers 2.5</v>
-      </c>
-      <c r="M14" cm="1">
-        <f t="array" ref="M14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,(E14-D14),(E14-D14)),D14&gt;0,IF(D14&lt;E14,(D14-E14),(D14-E14)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
-        <v>MAYBE</v>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
-        <v>49ers</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>-7</v>
-      </c>
-      <c r="E15">
-        <v>-6</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H15" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>Bears</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>Bears</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)),D15&gt;0,IF(D15&lt;E15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)))</f>
-        <v>Bears 1</v>
-      </c>
-      <c r="M15" cm="1">
-        <f t="array" ref="M15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,(E15-D15),(E15-D15)),D15&gt;0,IF(D15&lt;E15,(D15-E15),(D15-E15)))</f>
-        <v>1</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
-        <v/>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
-        <v>Bears</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>Cardinals</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)),D16&gt;0,IF(D16&lt;E16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)))</f>
-        <v>Seahawks -0.5</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,(E16-D16),(E16-D16)),D16&gt;0,IF(D16&lt;E16,(D16-E16),(D16-E16)))</f>
-        <v>-0.5</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
@@ -7499,6 +5706,1799 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
+  <dimension ref="B1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" customWidth="1"/>
+    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>-2.5</v>
+      </c>
+      <c r="E3">
+        <v>-2.5</v>
+      </c>
+      <c r="F3">
+        <f>E3*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="0">D3*-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J16" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K16" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <f>E4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Vikings</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Vikings</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>Vikings 1</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v>Vikings</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>Steelers</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>Steelers</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Steelers</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>Steelers 2</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
+        <v>2</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Steelers</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Raiders 2</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
+        <v>2</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Bengals</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Titans -3.5</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
+        <v>-3.5</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>-4.5</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>Patriots</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Bills -1.5</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
+        <v>-1.5</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>-21.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H16" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <v>Chiefs</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>Jets 1.5</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Chiefs</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>Dolphins</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v>Dolphins</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Chargers -2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
+      </c>
+      <c r="E13">
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>49ers</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>49ers</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>49ers 3</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
+        <v>3</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>Bears</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>Bears</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>Saints -2</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>-10.5</v>
+      </c>
+      <c r="E15">
+        <v>-3.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>Eagles</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cowboys</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>Eagles</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Eagles -7</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
+        <v>-7</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>8.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="5"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>Buccaneers</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Buccaneers -4.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
+        <v>-4.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v>Buccaneers</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
+  <dimension ref="B1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K16,"*"),5)</f>
+        <v>126</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O16)&lt;&gt;"")*1),5)</f>
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <f>D3*-1</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f>E3*-1</f>
+        <v>5</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(E3&lt;0,IF(E3&lt;-7.5,C3,FALSE),IF(AND(E3&gt;3.5,E3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>Giants</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>Giants</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>Giants</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)),D3&gt;0,IF(D3&lt;E3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)))</f>
+        <v>Giants 1</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(D3=E3,"No MOV",D3&lt;0,IF(D3&lt;E3,(E3-D3),(E3-D3)),D3&gt;0,IF(D3&lt;E3,(D3-E3),(D3-E3)))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v>Giants</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K16,"&lt;&gt;FALSE"),5)</f>
+        <v>56</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O16)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <f>D4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>E4*-1</f>
+        <v>7</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(E4&lt;0,IF(E4&lt;-7.5,B4,FALSE),IF(AND(E4&gt;3.5,E4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J16" si="0">IF(D4&lt;0,IF(D4&lt;=-7.5,C4,IF(AND(ABS(D4)&gt;=3.5,ABS(D4)&lt;=7),B4,FALSE)),IF(AND(D4&gt;=3.5,D4&lt;=7),C4,IF(D4&gt;=7.5,B4,FALSE)))</f>
+        <v>Panthers</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K16" si="1">IF(E4&lt;0,IF(E4&lt;=-7.5,C4,IF(AND(ABS(E4)&gt;=3.5,ABS(E4)&lt;=7),B4,FALSE)),IF(AND(E4&gt;=3.5,E4&lt;=7),C4,IF(E4&gt;=7.5,B4,FALSE)))</f>
+        <v>Panthers</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)),D4&gt;0,IF(D4&lt;E4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(D4=E4,"No MOV",D4&lt;0,IF(D4&lt;E4,(E4-D4),(E4-D4)),D4&gt;0,IF(D4&lt;E4,(D4-E4),(D4-E4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v>Panthers</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="2">D5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G16" si="3">E5*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(E5&lt;0,IF(E5&lt;-7.5,C5,FALSE),IF(AND(E5&gt;3.5,E5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)),D5&gt;0,IF(D5&lt;E5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(D5=E5,"No MOV",D5&lt;0,IF(D5&lt;E5,(E5-D5),(E5-D5)),D5&gt;0,IF(D5&lt;E5,(D5-E5),(D5-E5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(E6&lt;0,IF(E6&lt;-7.5,C6,FALSE),IF(AND(E6&gt;3.5,E6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bengals</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>Bengals</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)),D6&gt;0,IF(D6&lt;E6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)))</f>
+        <v>Bengals 0.5</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(D6=E6,"No MOV",D6&lt;0,IF(D6&lt;E6,(E6-D6),(E6-D6)),D6&gt;0,IF(D6&lt;E6,(D6-E6),(D6-E6)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v>Bengals</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF(E7&lt;0,IF(E7&lt;-7.5,C7,FALSE),IF(AND(E7&gt;3.5,E7&lt;7),C7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)),D7&gt;0,IF(D7&lt;E7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(D7=E7,"No MOV",D7&lt;0,IF(D7&lt;E7,(E7-D7),(E7-D7)),D7&gt;0,IF(D7&lt;E7,(D7-E7),(D7-E7)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(E8&lt;0,IF(E8&lt;-7.5,C8,FALSE),IF(AND(E8&gt;3.5,E8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)),D8&gt;0,IF(D8&lt;E8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(D8=E8,"No MOV",D8&lt;0,IF(D8&lt;E8,(E8-D8),(E8-D8)),D8&gt;0,IF(D8&lt;E8,(D8-E8),(D8-E8)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(E9&lt;0,IF(E9&lt;-7.5,#REF!,FALSE),IF(AND(E9&gt;3.5,E9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)),D9&gt;0,IF(D9&lt;E9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)))</f>
+        <v>Football Team 4</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(D9=E9,"No MOV",D9&lt;0,IF(D9&lt;E9,(E9-D9),(E9-D9)),D9&gt;0,IF(D9&lt;E9,(D9-E9),(D9-E9)))</f>
+        <v>4</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" ref="H10:H16" si="4">IF(E10&lt;0,IF(E10&lt;-7.5,C10,FALSE),IF(AND(E10&gt;3.5,E10&lt;7),C10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I16" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>Bills</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bills</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>Bills</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)),D10&gt;0,IF(D10&lt;E10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(D10=E10,"No MOV",D10&lt;0,IF(D10&lt;E10,(E10-D10),(E10-D10)),D10&gt;0,IF(D10&lt;E10,(D10-E10),(D10-E10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Bills</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-7.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaguars</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>Chargers</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)),D11&gt;0,IF(D11&lt;E11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)))</f>
+        <v>Chargers -0.5</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(D11=E11,"No MOV",D11&lt;0,IF(D11&lt;E11,(E11-D11),(E11-D11)),D11&gt;0,IF(D11&lt;E11,(D11-E11),(D11-E11)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>Raiders</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>Raiders</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)),D12&gt;0,IF(D12&lt;E12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)))</f>
+        <v>Buccaneers -2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(D12=E12,"No MOV",D12&lt;0,IF(D12&lt;E12,(E12-D12),(E12-D12)),D12&gt;0,IF(D12&lt;E12,(D12-E12),(D12-E12)))</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>9.5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>Broncos</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)),D13&gt;0,IF(D13&lt;E13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)))</f>
+        <v>Broncos 2.5</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(D13=E13,"No MOV",D13&lt;0,IF(D13&lt;E13,(E13-D13),(E13-D13)),D13&gt;0,IF(D13&lt;E13,(D13-E13),(D13-E13)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v>Broncos</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>-5.5</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v>49ers</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>49ers</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)),D14&gt;0,IF(D14&lt;E14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)))</f>
+        <v>49ers 2.5</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(D14=E14,"No MOV",D14&lt;0,IF(D14&lt;E14,(E14-D14),(E14-D14)),D14&gt;0,IF(D14&lt;E14,(D14-E14),(D14-E14)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v>49ers</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>-7</v>
+      </c>
+      <c r="E15">
+        <v>-6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bears</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>Bears</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)),D15&gt;0,IF(D15&lt;E15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)))</f>
+        <v>Bears 1</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(D15=E15,"No MOV",D15&lt;0,IF(D15&lt;E15,(E15-D15),(E15-D15)),D15&gt;0,IF(D15&lt;E15,(D15-E15),(D15-E15)))</f>
+        <v>1</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v>Bears</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>Cardinals</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)),D16&gt;0,IF(D16&lt;E16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)))</f>
+        <v>Seahawks -0.5</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(D16=E16,"No MOV",D16&lt;0,IF(D16&lt;E16,(E16-D16),(E16-D16)),D16&gt;0,IF(D16&lt;E16,(D16-E16),(D16-E16)))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
@@ -7511,16 +7511,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>2</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>2</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>0.54999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>10</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>2</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>2</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0.38596491228070168</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I9" t="s">
         <v>58</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I10" t="s">
         <v>59</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J11">
         <f>J9*J10</f>
         <v>0.32432432432432434</v>
@@ -7737,7 +7737,7 @@
         <v>-1.027027027027027</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
         <v>54</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I14" t="s">
         <v>58</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I15" t="s">
         <v>59</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>0.35135135135135132</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J16">
         <f>J14*J15</f>
         <v>0.64864864864864868</v>
@@ -7787,7 +7787,7 @@
         <v>-5.4054054054053946E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>54</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
         <v>58</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I20" t="s">
         <v>59</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.35">
       <c r="J21">
         <f>J19*J20</f>
         <v>0.94444444444444442</v>

--- a/data/odds calc.xlsx
+++ b/data/odds calc.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\football\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6050C3F-7B66-425C-A5DD-5DEFB0351AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA5B8F8-F426-4C6C-A944-451F190F2F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7990" yWindow="6220" windowWidth="24740" windowHeight="13830" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="30960" windowHeight="12108" xr2:uid="{C3C2C1FA-070B-4845-B992-F8F721B1F198}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 14" sheetId="8" r:id="rId1"/>
-    <sheet name="Week 13" sheetId="7" r:id="rId2"/>
-    <sheet name="Week 12" sheetId="6" r:id="rId3"/>
-    <sheet name="Week 11" sheetId="5" r:id="rId4"/>
-    <sheet name="Week 10" sheetId="3" r:id="rId5"/>
-    <sheet name="Week 9" sheetId="2" r:id="rId6"/>
-    <sheet name="Week 8" sheetId="1" r:id="rId7"/>
-    <sheet name="Probablities" sheetId="4" r:id="rId8"/>
+    <sheet name="Week 16" sheetId="9" r:id="rId1"/>
+    <sheet name="Week 14" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 13" sheetId="7" r:id="rId3"/>
+    <sheet name="Week 12" sheetId="6" r:id="rId4"/>
+    <sheet name="Week 11" sheetId="5" r:id="rId5"/>
+    <sheet name="Week 10" sheetId="3" r:id="rId6"/>
+    <sheet name="Week 9" sheetId="2" r:id="rId7"/>
+    <sheet name="Week 8" sheetId="1" r:id="rId8"/>
+    <sheet name="Probablities" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="63">
   <si>
     <t>Home</t>
   </si>
@@ -309,7 +311,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -850,24 +894,1004 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728A4F82-4EA4-4288-AD43-B64544884776}">
+  <dimension ref="B1:W19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <f>COMBIN(COUNTIF(K3:K19,"*"),5)</f>
+        <v>6</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">COMBIN(SUMPRODUCT((TRIM(O3:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f>E3*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G18" si="0">D3*-1</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(D3&lt;0,IF(D3&lt;-7.5,C3,FALSE),IF(AND(D3&gt;3.5,D3&lt;7),C3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(F3&lt;0,IF(F3&lt;-7.5,B3,FALSE),IF(AND(F3&gt;3.5,F3&lt;7),B3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J18" si="1">IF(E3&lt;0,IF(E3&lt;=-7.5,C3,IF(AND(ABS(E3)&gt;=3.5,ABS(E3)&lt;=7),B3,FALSE)),IF(AND(E3&gt;=3.5,E3&lt;=7),C3,IF(E3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K18" si="2">IF(D3&lt;0,IF(D3&lt;=-7.5,C3,IF(AND(ABS(D3)&gt;=3.5,ABS(D3)&lt;=7),B3,FALSE)),IF(AND(D3&gt;=3.5,D3&lt;=7),C3,IF(D3&gt;=7.5,B3,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,B3&amp;" "&amp;(D3-E3),C3&amp;" "&amp;(D3-E3)),E3&gt;0,IF(E3&lt;D3,B3&amp;" "&amp;(E3-D3),C3&amp;" "&amp;(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(E3=D3,"No MOV",E3&lt;=0,IF(E3&lt;D3,(D3-E3),(D3-E3)),E3&gt;0,IF(E3&lt;D3,(E3-D3),(E3-D3)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(J3&lt;&gt;K3,_xlfn.IFS(M3&gt;0,"MAYBE",M3&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(K3&lt;&gt;FALSE,N3&lt;&gt;"IGNORE"),K3,AND(J3&lt;&gt;FALSE,K3=FALSE,N3="MAYBE"),J3,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <f>COMBIN(COUNTIF(K4:K19,"&lt;&gt;FALSE"),5)</f>
+        <v>21</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">COMBIN(SUMPRODUCT((TRIM(O4:O19)&lt;&gt;"")*1),5)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f>E4*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF(D4&lt;0,IF(D4&lt;-7.5,B4,FALSE),IF(AND(D4&gt;3.5,D4&lt;7),B4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF(F4&lt;0,IF(F4&lt;-7.5,C4,FALSE),IF(AND(F4&gt;3.5,F4&lt;7),C4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;=0,IF(E4&lt;D4,B4&amp;" "&amp;(D4-E4),C4&amp;" "&amp;(D4-E4)),E4&gt;0,IF(E4&lt;D4,B4&amp;" "&amp;(E4-D4),C4&amp;" "&amp;(E4-D4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(E4=D4,"No MOV",E4&lt;0,IF(E4&lt;D4,(D4-E4),(D4-E4)),E4&gt;0,IF(E4&lt;D4,(E4-D4),(E4-D4)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(J4&lt;&gt;K4,_xlfn.IFS(M4&gt;0,"MAYBE",M4&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(K4&lt;&gt;FALSE,N4&lt;&gt;"IGNORE"),K4,AND(J4&lt;&gt;FALSE,K4=FALSE,N4="MAYBE"),J4,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" ref="F5:F18" si="3">E5*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF(D5&lt;0,IF(D5&lt;-7.5,C5,FALSE),IF(AND(D5&gt;3.5,D5&lt;7),C5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF(F5&lt;0,IF(F5&lt;-7.5,B5,FALSE),IF(AND(F5&gt;3.5,F5&lt;7),B5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;=0,IF(E5&lt;D5,B5&amp;" "&amp;(D5-E5),C5&amp;" "&amp;(D5-E5)),E5&gt;0,IF(E5&lt;D5,B5&amp;" "&amp;(E5-D5),C5&amp;" "&amp;(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(E5=D5,"No MOV",E5&lt;0,IF(E5&lt;D5,(D5-E5),(D5-E5)),E5&gt;0,IF(E5&lt;D5,(E5-D5),(E5-D5)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(J5&lt;&gt;K5,_xlfn.IFS(M5&gt;0,"MAYBE",M5&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(K5&lt;&gt;FALSE,N5&lt;&gt;"IGNORE"),K5,AND(J5&lt;&gt;FALSE,K5=FALSE,N5="MAYBE"),J5,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF(D6&lt;0,IF(D6&lt;-7.5,C6,FALSE),IF(AND(D6&gt;3.5,D6&lt;7),C6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IF(F6&lt;0,IF(F6&lt;-7.5,B6,FALSE),IF(AND(F6&gt;3.5,F6&lt;7),B6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;=0,IF(E6&lt;D6,B6&amp;" "&amp;(D6-E6),C6&amp;" "&amp;(D6-E6)),E6&gt;0,IF(E6&lt;D6,B6&amp;" "&amp;(E6-D6),C6&amp;" "&amp;(E6-D6)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M6" t="str" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(E6=D6,"No MOV",E6&lt;0,IF(E6&lt;D6,(D6-E6),(D6-E6)),E6&gt;0,IF(E6&lt;D6,(E6-D6),(E6-D6)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(J6&lt;&gt;K6,_xlfn.IFS(M6&gt;0,"MAYBE",M6&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(K6&lt;&gt;FALSE,N6&lt;&gt;"IGNORE"),K6,AND(J6&lt;&gt;FALSE,K6=FALSE,N6="MAYBE"),J6,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>-10.5</v>
+      </c>
+      <c r="E7">
+        <v>-11.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(D7&lt;0,IF(D7&lt;-7.5,C7,FALSE),IF(AND(D7&gt;3.5,D7&lt;7),C7,FALSE))</f>
+        <v>Chiefs</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF(F7&lt;0,IF(F7&lt;-7.5,B7,FALSE),IF(AND(F7&gt;3.5,F7&lt;7),B7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiefs</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;=0,IF(E7&lt;D7,B7&amp;" "&amp;(D7-E7),C7&amp;" "&amp;(D7-E7)),E7&gt;0,IF(E7&lt;D7,B7&amp;" "&amp;(E7-D7),C7&amp;" "&amp;(E7-D7)))</f>
+        <v>Falcons 1</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(E7=D7,"No MOV",E7&lt;0,IF(E7&lt;D7,(D7-E7),(D7-E7)),E7&gt;0,IF(E7&lt;D7,(E7-D7),(E7-D7)))</f>
+        <v>1</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(J7&lt;&gt;K7,_xlfn.IFS(M7&gt;0,"MAYBE",M7&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(K7&lt;&gt;FALSE,N7&lt;&gt;"IGNORE"),K7,AND(J7&lt;&gt;FALSE,K7=FALSE,N7="MAYBE"),J7,TRUE,"")</f>
+        <v>Chiefs</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>8.5</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>-4.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-8.5</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF(D8&lt;0,IF(D8&lt;-7.5,C8,FALSE),IF(AND(D8&gt;3.5,D8&lt;7),C8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(F8&lt;0,IF(F8&lt;-7.5,B8,FALSE),IF(AND(F8&gt;3.5,F8&lt;7),B8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaguars</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Bears</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;=0,IF(E8&lt;D8,B8&amp;" "&amp;(D8-E8),C8&amp;" "&amp;(D8-E8)),E8&gt;0,IF(E8&lt;D8,B8&amp;" "&amp;(E8-D8),C8&amp;" "&amp;(E8-D8)))</f>
+        <v>Bears -4</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(E8=D8,"No MOV",E8&lt;0,IF(E8&lt;D8,(D8-E8),(D8-E8)),E8&gt;0,IF(E8&lt;D8,(E8-D8),(E8-D8)))</f>
+        <v>-4</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(J8&lt;&gt;K8,_xlfn.IFS(M8&gt;0,"MAYBE",M8&lt;0,"IGNORE"),"")</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(K8&lt;&gt;FALSE,N8&lt;&gt;"IGNORE"),K8,AND(J8&lt;&gt;FALSE,K8=FALSE,N8="MAYBE"),J8,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>-10.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF(D9&lt;0,IF(D9&lt;-7.5,#REF!,FALSE),IF(AND(D9&gt;3.5,D9&lt;7),#REF!,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(F9&lt;0,IF(F9&lt;-7.5,C9,FALSE),IF(AND(F9&gt;3.5,F9&lt;7),C9,FALSE))</f>
+        <v>Jets</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>Browns</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>Jets</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;=0,IF(E9&lt;D9,B9&amp;" "&amp;(D9-E9),C9&amp;" "&amp;(D9-E9)),E9&gt;0,IF(E9&lt;D9,B9&amp;" "&amp;(E9-D9),C9&amp;" "&amp;(E9-D9)))</f>
+        <v>Jets 3.5</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(E9=D9,"No MOV",E9&lt;0,IF(E9&lt;D9,(D9-E9),(D9-E9)),E9&gt;0,IF(E9&lt;D9,(E9-D9),(E9-D9)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(J9&lt;&gt;K9,_xlfn.IFS(M9&gt;0,"MAYBE",M9&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(K9&lt;&gt;FALSE,N9&lt;&gt;"IGNORE"),K9,AND(J9&lt;&gt;FALSE,K9=FALSE,N9="MAYBE"),J9,TRUE,"")</f>
+        <v>Jets</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H18" si="4">IF(D10&lt;0,IF(D10&lt;-7.5,C10,FALSE),IF(AND(D10&gt;3.5,D10&lt;7),C10,FALSE))</f>
+        <v>Ravens</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" ref="I10:I18" si="5">IF(F10&lt;0,IF(F10&lt;-7.5,B10,FALSE),IF(AND(F10&gt;3.5,F10&lt;7),B10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>Ravens</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>Ravens</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;=0,IF(E10&lt;D10,B10&amp;" "&amp;(D10-E10),C10&amp;" "&amp;(D10-E10)),E10&gt;0,IF(E10&lt;D10,B10&amp;" "&amp;(E10-D10),C10&amp;" "&amp;(E10-D10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(E10=D10,"No MOV",E10&lt;0,IF(E10&lt;D10,(D10-E10),(D10-E10)),E10&gt;0,IF(E10&lt;D10,(E10-D10),(E10-D10)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(J10&lt;&gt;K10,_xlfn.IFS(M10&gt;0,"MAYBE",M10&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(K10&lt;&gt;FALSE,N10&lt;&gt;"IGNORE"),K10,AND(J10&lt;&gt;FALSE,K10=FALSE,N10="MAYBE"),J10,TRUE,"")</f>
+        <v>Ravens</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;=0,IF(E11&lt;D11,B11&amp;" "&amp;(D11-E11),C11&amp;" "&amp;(D11-E11)),E11&gt;0,IF(E11&lt;D11,B11&amp;" "&amp;(E11-D11),C11&amp;" "&amp;(E11-D11)))</f>
+        <v>Colts 4</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(E11=D11,"No MOV",E11&lt;0,IF(E11&lt;D11,(D11-E11),(D11-E11)),E11&gt;0,IF(E11&lt;D11,(E11-D11),(E11-D11)))</f>
+        <v>4</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(J11&lt;&gt;K11,_xlfn.IFS(M11&gt;0,"MAYBE",M11&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(K11&lt;&gt;FALSE,N11&lt;&gt;"IGNORE"),K11,AND(J11&lt;&gt;FALSE,K11=FALSE,N11="MAYBE"),J11,TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>-7.5</v>
+      </c>
+      <c r="E12">
+        <v>-8.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>Texans</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>Texans</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;=0,IF(E12&lt;D12,B12&amp;" "&amp;(D12-E12),C12&amp;" "&amp;(D12-E12)),E12&gt;0,IF(E12&lt;D12,B12&amp;" "&amp;(E12-D12),C12&amp;" "&amp;(E12-D12)))</f>
+        <v>Bengals 1</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(E12=D12,"No MOV",E12&lt;0,IF(E12&lt;D12,(D12-E12),(D12-E12)),E12&gt;0,IF(E12&lt;D12,(E12-D12),(E12-D12)))</f>
+        <v>1</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(J12&lt;&gt;K12,_xlfn.IFS(M12&gt;0,"MAYBE",M12&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(K12&lt;&gt;FALSE,N12&lt;&gt;"IGNORE"),K12,AND(J12&lt;&gt;FALSE,K12=FALSE,N12="MAYBE"),J12,TRUE,"")</f>
+        <v>Texans</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>-2.5</v>
+      </c>
+      <c r="E13">
+        <v>-2.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;=0,IF(E13&lt;D13,B13&amp;" "&amp;(D13-E13),C13&amp;" "&amp;(D13-E13)),E13&gt;0,IF(E13&lt;D13,B13&amp;" "&amp;(E13-D13),C13&amp;" "&amp;(E13-D13)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(E13=D13,"No MOV",E13&lt;0,IF(E13&lt;D13,(D13-E13),(D13-E13)),E13&gt;0,IF(E13&lt;D13,(E13-D13),(E13-D13)))</f>
+        <v>No MOV</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(J13&lt;&gt;K13,_xlfn.IFS(M13&gt;0,"MAYBE",M13&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(K13&lt;&gt;FALSE,N13&lt;&gt;"IGNORE"),K13,AND(J13&lt;&gt;FALSE,K13=FALSE,N13="MAYBE"),J13,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-2.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;=0,IF(E14&lt;D14,B14&amp;" "&amp;(D14-E14),C14&amp;" "&amp;(D14-E14)),E14&gt;0,IF(E14&lt;D14,B14&amp;" "&amp;(E14-D14),C14&amp;" "&amp;(E14-D14)))</f>
+        <v>Panthers 3.5</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(E14=D14,"No MOV",E14&lt;0,IF(E14&lt;D14,(D14-E14),(D14-E14)),E14&gt;0,IF(E14&lt;D14,(E14-D14),(E14-D14)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(J14&lt;&gt;K14,_xlfn.IFS(M14&gt;0,"MAYBE",M14&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(K14&lt;&gt;FALSE,N14&lt;&gt;"IGNORE"),K14,AND(J14&lt;&gt;FALSE,K14=FALSE,N14="MAYBE"),J14,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;=0,IF(E15&lt;D15,B15&amp;" "&amp;(D15-E15),C15&amp;" "&amp;(D15-E15)),E15&gt;0,IF(E15&lt;D15,B15&amp;" "&amp;(E15-D15),C15&amp;" "&amp;(E15-D15)))</f>
+        <v>Eagles 3</v>
+      </c>
+      <c r="M15" t="e" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(E15=D15,"No MOV",E15&lt;0,IF(E15&lt;D15,(D15-E15),(D15-E15)),E15&gt;0,IF(E15&lt;D15,(E15-D15),(E15-D15)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(J15&lt;&gt;K15,_xlfn.IFS(M15&gt;0,"MAYBE",M15&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(K15&lt;&gt;FALSE,N15&lt;&gt;"IGNORE"),K15,AND(J15&lt;&gt;FALSE,K15=FALSE,N15="MAYBE"),J15,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;=0,IF(E16&lt;D16,B16&amp;" "&amp;(D16-E16),C16&amp;" "&amp;(D16-E16)),E16&gt;0,IF(E16&lt;D16,B16&amp;" "&amp;(E16-D16),C16&amp;" "&amp;(E16-D16)))</f>
+        <v>Rams 1</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(E16=D16,"No MOV",E16&lt;0,IF(E16&lt;D16,(D16-E16),(D16-E16)),E16&gt;0,IF(E16&lt;D16,(E16-D16),(E16-D16)))</f>
+        <v>1</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(J16&lt;&gt;K16,_xlfn.IFS(M16&gt;0,"MAYBE",M16&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(K16&lt;&gt;FALSE,N16&lt;&gt;"IGNORE"),K16,AND(J16&lt;&gt;FALSE,K16=FALSE,N16="MAYBE"),J16,TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>-3</v>
+      </c>
+      <c r="E17">
+        <v>-4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="5"/>
+        <v>Titans</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>Titans</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;=0,IF(E17&lt;D17,B17&amp;" "&amp;(D17-E17),C17&amp;" "&amp;(D17-E17)),E17&gt;0,IF(E17&lt;D17,B17&amp;" "&amp;(E17-D17),C17&amp;" "&amp;(E17-D17)))</f>
+        <v>Titans 1</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(E17=D17,"No MOV",E17&lt;0,IF(E17&lt;D17,(D17-E17),(D17-E17)),E17&gt;0,IF(E17&lt;D17,(E17-D17),(E17-D17)))</f>
+        <v>1</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">IF(J17&lt;&gt;K17,_xlfn.IFS(M17&gt;0,"MAYBE",M17&lt;0,"IGNORE"),"")</f>
+        <v>MAYBE</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.IFS(AND(K17&lt;&gt;FALSE,N17&lt;&gt;"IGNORE"),K17,AND(J17&lt;&gt;FALSE,K17=FALSE,N17="MAYBE"),J17,TRUE,"")</f>
+        <v>Titans</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>4.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>-4.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>Patriots</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>Patriots</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;=0,IF(E18&lt;D18,B18&amp;" "&amp;(D18-E18),C18&amp;" "&amp;(D18-E18)),E18&gt;0,IF(E18&lt;D18,B18&amp;" "&amp;(E18-D18),C18&amp;" "&amp;(E18-D18)))</f>
+        <v>Bills -2.5</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(E18=D18,"No MOV",E18&lt;0,IF(E18&lt;D18,(D18-E18),(D18-E18)),E18&gt;0,IF(E18&lt;D18,(E18-D18),(E18-D18)))</f>
+        <v>-2.5</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">IF(J18&lt;&gt;K18,_xlfn.IFS(M18&gt;0,"MAYBE",M18&lt;0,"IGNORE"),"")</f>
+        <v/>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(AND(K18&lt;&gt;FALSE,N18&lt;&gt;"IGNORE"),K18,AND(J18&lt;&gt;FALSE,K18=FALSE,N18="MAYBE"),J18,TRUE,"")</f>
+        <v>Patriots</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J12 J14:J19">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K12 K14:K19">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O12 O14:O19">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="notEqual">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB924F0-8F6F-4777-AEBC-57FF7786E2F9}">
   <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="4" sqref="A15:XFD15 A12:XFD12 A9:XFD9 A16:XFD16 A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -890,7 +1914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -942,7 +1966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -1010,7 +2034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +2091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +2148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -1178,7 +2202,7 @@
         <v>Vikings</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +2256,7 @@
         <v>Dolphins</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +2310,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +2364,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +2418,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1451,7 +2475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +2532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1562,7 +2586,7 @@
         <v>Football Team</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +2694,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +2748,7 @@
         <v>Packers</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +2802,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -1792,27 +2816,27 @@
         <v>2.5</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="6">E18*-1</f>
+        <f>E18*-1</f>
         <v>-2.5</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18" si="7">D18*-1</f>
+        <f>D18*-1</f>
         <v>-3</v>
       </c>
       <c r="H18" t="b">
-        <f t="shared" ref="H18" si="8">IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
+        <f>IF(D18&lt;0,IF(D18&lt;-7.5,C18,FALSE),IF(AND(D18&gt;3.5,D18&lt;7),C18,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <f t="shared" ref="I18" si="9">IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
+        <f>IF(F18&lt;0,IF(F18&lt;-7.5,B18,FALSE),IF(AND(F18&gt;3.5,F18&lt;7),B18,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J18" t="b">
-        <f t="shared" ref="J18" si="10">IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
+        <f>IF(E18&lt;0,IF(E18&lt;=-7.5,C18,IF(AND(ABS(E18)&gt;=3.5,ABS(E18)&lt;=7),B18,FALSE)),IF(AND(E18&gt;=3.5,E18&lt;=7),C18,IF(E18&gt;=7.5,B18,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <f t="shared" ref="K18" si="11">IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
+        <f>IF(D18&lt;0,IF(D18&lt;=-7.5,C18,IF(AND(ABS(D18)&gt;=3.5,ABS(D18)&lt;=7),B18,FALSE)),IF(AND(D18&gt;=3.5,D18&lt;=7),C18,IF(D18&gt;=7.5,B18,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="L18" t="str" cm="1">
@@ -1832,7 +2856,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1877,7 +2901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96BF1A-B966-4D0A-8107-F9A995F884F7}">
   <dimension ref="B1:W19"/>
   <sheetViews>
@@ -1885,17 +2909,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +2942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +2994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +3062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +3119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +3176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -2206,7 +3230,7 @@
         <v>Raiders</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -2260,7 +3284,7 @@
         <v>Texans</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2314,7 +3338,7 @@
         <v>Browns</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2368,7 +3392,7 @@
         <v>Vikings</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -2422,7 +3446,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -2479,7 +3503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -2536,7 +3560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +3614,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -2644,7 +3668,7 @@
         <v>Chiefs</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +3722,7 @@
         <v>Football Team</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -2752,7 +3776,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2806,7 +3830,7 @@
         <v>Ravens</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2851,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DB7B0E-D556-458B-B086-73E8623FC748}">
   <dimension ref="B1:W19"/>
   <sheetViews>
@@ -2859,17 +3883,17 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +3916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +3968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +4036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -3069,7 +4093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3126,7 +4150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -3180,7 +4204,7 @@
         <v>Chargers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -3234,7 +4258,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -3288,7 +4312,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +4366,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -3453,7 +4477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +4534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -3564,7 +4588,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3618,7 +4642,7 @@
         <v>49ers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -3672,7 +4696,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -3686,27 +4710,27 @@
         <v>-7.5</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="6">E16*-1</f>
+        <f>E16*-1</f>
         <v>7.5</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="7">D16*-1</f>
+        <f>D16*-1</f>
         <v>8</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ref="H16:H17" si="8">IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
+        <f>IF(D16&lt;0,IF(D16&lt;-7.5,C16,FALSE),IF(AND(D16&gt;3.5,D16&lt;7),C16,FALSE))</f>
         <v>Packers</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" ref="I16:I17" si="9">IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
+        <f>IF(F16&lt;0,IF(F16&lt;-7.5,B16,FALSE),IF(AND(F16&gt;3.5,F16&lt;7),B16,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16:J17" si="10">IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
+        <f>IF(E16&lt;0,IF(E16&lt;=-7.5,C16,IF(AND(ABS(E16)&gt;=3.5,ABS(E16)&lt;=7),B16,FALSE)),IF(AND(E16&gt;=3.5,E16&lt;=7),C16,IF(E16&gt;=7.5,B16,FALSE)))</f>
         <v>Packers</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ref="K16:K17" si="11">IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
+        <f>IF(D16&lt;0,IF(D16&lt;=-7.5,C16,IF(AND(ABS(D16)&gt;=3.5,ABS(D16)&lt;=7),B16,FALSE)),IF(AND(D16&gt;=3.5,D16&lt;=7),C16,IF(D16&gt;=7.5,B16,FALSE)))</f>
         <v>Packers</v>
       </c>
       <c r="L16" t="str" cm="1">
@@ -3726,7 +4750,7 @@
         <v>Packers</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -3740,27 +4764,27 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
+        <f>E17*-1</f>
         <v>-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f>D17*-1</f>
         <v>-6</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(D17&lt;0,IF(D17&lt;-7.5,C17,FALSE),IF(AND(D17&gt;3.5,D17&lt;7),C17,FALSE))</f>
         <v>Eagles</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="9"/>
+        <f>IF(F17&lt;0,IF(F17&lt;-7.5,B17,FALSE),IF(AND(F17&gt;3.5,F17&lt;7),B17,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J17" t="b">
-        <f t="shared" si="10"/>
+        <f>IF(E17&lt;0,IF(E17&lt;=-7.5,C17,IF(AND(ABS(E17)&gt;=3.5,ABS(E17)&lt;=7),B17,FALSE)),IF(AND(E17&gt;=3.5,E17&lt;=7),C17,IF(E17&gt;=7.5,B17,FALSE)))</f>
         <v>0</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(D17&lt;0,IF(D17&lt;=-7.5,C17,IF(AND(ABS(D17)&gt;=3.5,ABS(D17)&lt;=7),B17,FALSE)),IF(AND(D17&gt;=3.5,D17&lt;=7),C17,IF(D17&gt;=7.5,B17,FALSE)))</f>
         <v>Eagles</v>
       </c>
       <c r="L17" t="str" cm="1">
@@ -3780,7 +4804,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -3834,7 +4858,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3879,7 +4903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A3E5F-37EF-4B0A-8740-C47566194EB6}">
   <dimension ref="B1:W19"/>
   <sheetViews>
@@ -3887,17 +4911,17 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3920,7 +4944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3972,7 +4996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -4040,7 +5064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +5121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4154,7 +5178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +5232,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4262,7 +5286,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4316,7 +5340,7 @@
         <v>Titans</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +5394,7 @@
         <v>Falcons</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -4424,7 +5448,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -4481,7 +5505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -4538,7 +5562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4592,7 +5616,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -4646,7 +5670,7 @@
         <v>Cowboys</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4700,7 +5724,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -4754,17 +5778,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4809,7 +5833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A6FAFB-C442-4C7F-AE94-F3B7E9347D67}">
   <dimension ref="B1:W16"/>
   <sheetViews>
@@ -4817,17 +5841,17 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +5874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4902,7 +5926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -4970,7 +5994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -5027,7 +6051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -5084,7 +6108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -5138,7 +6162,7 @@
         <v>Colts</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -5192,7 +6216,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -5246,7 +6270,7 @@
         <v>Giants</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -5300,7 +6324,7 @@
         <v>Jaguars</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -5354,7 +6378,7 @@
         <v>Bears</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -5411,7 +6435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -5468,7 +6492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -5522,7 +6546,7 @@
         <v>Dolphins</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -5576,7 +6600,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -5630,7 +6654,7 @@
         <v>Saints</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5709,7 +6733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A1D63-5082-451A-A4E3-54802EAB779F}">
   <dimension ref="B1:W16"/>
   <sheetViews>
@@ -5717,17 +6741,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" customWidth="1"/>
-    <col min="21" max="22" width="2.54296875" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="21" max="22" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5750,7 +6774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5802,7 +6826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -5870,7 +6894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -5927,7 +6951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -5984,7 +7008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -6038,7 +7062,7 @@
         <v>Steelers</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -6092,7 +7116,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -6146,7 +7170,7 @@
         <v>Bengals</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -6200,7 +7224,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -6254,7 +7278,7 @@
         <v>Chiefs</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -6311,7 +7335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -6365,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -6419,7 +7443,7 @@
         <v>49ers</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -6473,7 +7497,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -6527,7 +7551,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -6606,7 +7630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FE475-102F-4385-AE26-CA328BB522E6}">
   <dimension ref="B1:W16"/>
   <sheetViews>
@@ -6614,19 +7638,19 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="3.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6649,7 +7673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6701,7 +7725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6769,7 +7793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -6826,7 +7850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -6883,7 +7907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -6937,7 +7961,7 @@
         <v>Bengals</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -6991,7 +8015,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -7045,7 +8069,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -7099,7 +8123,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -7153,7 +8177,7 @@
         <v>Bills</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -7207,7 +8231,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -7261,7 +8285,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -7315,7 +8339,7 @@
         <v>Broncos</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -7369,7 +8393,7 @@
         <v>49ers</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -7423,7 +8447,7 @@
         <v>Bears</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -7503,7 +8527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E052039D-DD95-4FC1-B4DE-BF271006E0B2}">
   <dimension ref="B1:N21"/>
   <sheetViews>
@@ -7511,16 +8535,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -7534,7 +8558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>2</v>
       </c>
@@ -7557,7 +8581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -7574,7 +8598,7 @@
         <v>0.54999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>10</v>
       </c>
@@ -7597,7 +8621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -7622,7 +8646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>2</v>
       </c>
@@ -7649,7 +8673,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -7669,7 +8693,7 @@
         <v>0.38596491228070168</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -7695,7 +8719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
         <v>58</v>
       </c>
@@ -7706,7 +8730,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
         <v>59</v>
       </c>
@@ -7719,7 +8743,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J11">
         <f>J9*J10</f>
         <v>0.32432432432432434</v>
@@ -7737,7 +8761,7 @@
         <v>-1.027027027027027</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>54</v>
       </c>
@@ -7745,7 +8769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>58</v>
       </c>
@@ -7756,7 +8780,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>59</v>
       </c>
@@ -7769,7 +8793,7 @@
         <v>0.35135135135135132</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J16">
         <f>J14*J15</f>
         <v>0.64864864864864868</v>
@@ -7787,7 +8811,7 @@
         <v>-5.4054054054053946E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>54</v>
       </c>
@@ -7795,7 +8819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>58</v>
       </c>
@@ -7806,7 +8830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>59</v>
       </c>
@@ -7819,7 +8843,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
       <c r="J21">
         <f>J19*J20</f>
         <v>0.94444444444444442</v>
